--- a/document/docs/pg0003/アプリケーション詳細設計書.xlsx
+++ b/document/docs/pg0003/アプリケーション詳細設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\pythonbase\document\docs\pg0003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAC8609-538A-4D59-AB16-4B216A8B80D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2788BF7-F008-4A3E-BC11-CEE1790C6DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
   <si>
     <t>プログラムコード</t>
     <phoneticPr fontId="1"/>
@@ -656,6 +656,16 @@
     <t>表示する</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した値をセットする。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -843,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,9 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2596,23 +2603,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:CQ4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:CQ5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:CQ6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:CQ7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:CQ8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:CQ9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:CQ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:CQ11"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:CQ15"/>
     <mergeCell ref="B12:E12"/>
@@ -2621,6 +2611,23 @@
     <mergeCell ref="F13:CQ13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:CQ14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:CQ9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:CQ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:CQ11"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:CQ6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:CQ7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:CQ8"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:CQ4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:CQ5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4018,11 +4025,41 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="X12:AN12"/>
-    <mergeCell ref="G13:W13"/>
+    <mergeCell ref="AO18:BE18"/>
+    <mergeCell ref="BW23:CM23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:W24"/>
+    <mergeCell ref="X24:AN24"/>
+    <mergeCell ref="AO24:BE24"/>
+    <mergeCell ref="BF24:BV24"/>
+    <mergeCell ref="BW24:CM24"/>
+    <mergeCell ref="X23:AN23"/>
+    <mergeCell ref="AO23:BE23"/>
+    <mergeCell ref="BF23:BV23"/>
+    <mergeCell ref="AO15:BE15"/>
+    <mergeCell ref="G15:W15"/>
+    <mergeCell ref="X15:AN15"/>
+    <mergeCell ref="X14:AN14"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="AS5:CS9"/>
+    <mergeCell ref="X13:AN13"/>
+    <mergeCell ref="AO12:BE12"/>
+    <mergeCell ref="BW22:CM22"/>
+    <mergeCell ref="X22:AN22"/>
+    <mergeCell ref="AO22:BE22"/>
+    <mergeCell ref="BF22:BV22"/>
+    <mergeCell ref="AO19:BE19"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:W23"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:W18"/>
+    <mergeCell ref="X18:AN18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:W19"/>
+    <mergeCell ref="X19:AN19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:W22"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="B2:CR2"/>
     <mergeCell ref="C4:O4"/>
@@ -4039,42 +4076,12 @@
     <mergeCell ref="C8:O8"/>
     <mergeCell ref="P8:AR8"/>
     <mergeCell ref="G14:W14"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:W23"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:W18"/>
-    <mergeCell ref="X18:AN18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:W19"/>
-    <mergeCell ref="X19:AN19"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:W22"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="X12:AN12"/>
+    <mergeCell ref="G13:W13"/>
     <mergeCell ref="G12:W12"/>
-    <mergeCell ref="BW22:CM22"/>
-    <mergeCell ref="X22:AN22"/>
-    <mergeCell ref="AO22:BE22"/>
-    <mergeCell ref="BF22:BV22"/>
-    <mergeCell ref="AO19:BE19"/>
-    <mergeCell ref="AO15:BE15"/>
-    <mergeCell ref="G15:W15"/>
-    <mergeCell ref="X15:AN15"/>
-    <mergeCell ref="X14:AN14"/>
-    <mergeCell ref="C9:O9"/>
-    <mergeCell ref="P9:AR9"/>
-    <mergeCell ref="AS5:CS9"/>
-    <mergeCell ref="BW23:CM23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:W24"/>
-    <mergeCell ref="X24:AN24"/>
-    <mergeCell ref="AO24:BE24"/>
-    <mergeCell ref="BF24:BV24"/>
-    <mergeCell ref="BW24:CM24"/>
-    <mergeCell ref="X23:AN23"/>
-    <mergeCell ref="AO23:BE23"/>
-    <mergeCell ref="BF23:BV23"/>
-    <mergeCell ref="X13:AN13"/>
-    <mergeCell ref="AO12:BE12"/>
-    <mergeCell ref="AO18:BE18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6172,6 +6179,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:AO5"/>
+    <mergeCell ref="AP5:BD5"/>
+    <mergeCell ref="BE5:BS5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="U4:AO4"/>
+    <mergeCell ref="AP4:BD4"/>
+    <mergeCell ref="BE4:BS4"/>
+    <mergeCell ref="BE10:BS10"/>
+    <mergeCell ref="BE11:BS11"/>
+    <mergeCell ref="BE12:BS12"/>
+    <mergeCell ref="BE13:BS13"/>
+    <mergeCell ref="BE14:BS14"/>
+    <mergeCell ref="BE15:BS15"/>
+    <mergeCell ref="AP13:BD13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:T14"/>
+    <mergeCell ref="U14:AO14"/>
+    <mergeCell ref="AP14:BD14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:T13"/>
+    <mergeCell ref="U13:AO13"/>
+    <mergeCell ref="U10:AO10"/>
+    <mergeCell ref="AP10:BD10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:T11"/>
+    <mergeCell ref="U11:AO11"/>
+    <mergeCell ref="AP11:BD11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:T12"/>
+    <mergeCell ref="U12:AO12"/>
+    <mergeCell ref="AP12:BD12"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:T19"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="AP19:BJ19"/>
+    <mergeCell ref="BK19:BY19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:T15"/>
+    <mergeCell ref="U15:AO15"/>
+    <mergeCell ref="AP15:BD15"/>
+    <mergeCell ref="BZ23:CN23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:T22"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="BK22:BY22"/>
+    <mergeCell ref="BZ22:CN22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:T23"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
+    <mergeCell ref="BK23:BY23"/>
+    <mergeCell ref="BZ25:CN25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:T24"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="BK24:BY24"/>
+    <mergeCell ref="BZ24:CN24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:T25"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="BK25:BY25"/>
+    <mergeCell ref="BZ27:CN27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:T26"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="AP26:BJ26"/>
+    <mergeCell ref="BK26:BY26"/>
+    <mergeCell ref="BZ26:CN26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:T27"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="BK27:BY27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:T29"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="BK29:BY29"/>
+    <mergeCell ref="BZ29:CN29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:T28"/>
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="BK28:BY28"/>
+    <mergeCell ref="BZ28:CN28"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:T31"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="AP31:BJ31"/>
+    <mergeCell ref="BK31:BY31"/>
+    <mergeCell ref="BZ31:CN31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:T30"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="BK30:BY30"/>
+    <mergeCell ref="BZ30:CN30"/>
+    <mergeCell ref="CO23:DC23"/>
+    <mergeCell ref="CO31:DC31"/>
+    <mergeCell ref="CO25:DC25"/>
+    <mergeCell ref="CO26:DC26"/>
+    <mergeCell ref="CO27:DC27"/>
+    <mergeCell ref="CO28:DC28"/>
+    <mergeCell ref="CO29:DC29"/>
+    <mergeCell ref="CO30:DC30"/>
+    <mergeCell ref="CO24:DC24"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:T6"/>
     <mergeCell ref="U6:AO6"/>
@@ -6196,118 +6315,6 @@
     <mergeCell ref="BZ19:CN19"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:T10"/>
-    <mergeCell ref="CO23:DC23"/>
-    <mergeCell ref="CO31:DC31"/>
-    <mergeCell ref="CO25:DC25"/>
-    <mergeCell ref="CO26:DC26"/>
-    <mergeCell ref="CO27:DC27"/>
-    <mergeCell ref="CO28:DC28"/>
-    <mergeCell ref="CO29:DC29"/>
-    <mergeCell ref="CO30:DC30"/>
-    <mergeCell ref="CO24:DC24"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:T31"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="BK31:BY31"/>
-    <mergeCell ref="BZ31:CN31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:T30"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="AP30:BJ30"/>
-    <mergeCell ref="BK30:BY30"/>
-    <mergeCell ref="BZ30:CN30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:T29"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="BK29:BY29"/>
-    <mergeCell ref="BZ29:CN29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:T28"/>
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="BK28:BY28"/>
-    <mergeCell ref="BZ28:CN28"/>
-    <mergeCell ref="BZ27:CN27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:T26"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="BK26:BY26"/>
-    <mergeCell ref="BZ26:CN26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:T27"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="BK27:BY27"/>
-    <mergeCell ref="BZ25:CN25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:T24"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="AP24:BJ24"/>
-    <mergeCell ref="BK24:BY24"/>
-    <mergeCell ref="BZ24:CN24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:T25"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="BK25:BY25"/>
-    <mergeCell ref="BZ23:CN23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:T22"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="AP22:BJ22"/>
-    <mergeCell ref="BK22:BY22"/>
-    <mergeCell ref="BZ22:CN22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:T23"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="AP23:BJ23"/>
-    <mergeCell ref="BK23:BY23"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:T19"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="AP19:BJ19"/>
-    <mergeCell ref="BK19:BY19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:T15"/>
-    <mergeCell ref="U15:AO15"/>
-    <mergeCell ref="AP15:BD15"/>
-    <mergeCell ref="BE10:BS10"/>
-    <mergeCell ref="BE11:BS11"/>
-    <mergeCell ref="BE12:BS12"/>
-    <mergeCell ref="BE13:BS13"/>
-    <mergeCell ref="BE14:BS14"/>
-    <mergeCell ref="BE15:BS15"/>
-    <mergeCell ref="AP13:BD13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:T14"/>
-    <mergeCell ref="U14:AO14"/>
-    <mergeCell ref="AP14:BD14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:T13"/>
-    <mergeCell ref="U13:AO13"/>
-    <mergeCell ref="U10:AO10"/>
-    <mergeCell ref="AP10:BD10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:T11"/>
-    <mergeCell ref="U11:AO11"/>
-    <mergeCell ref="AP11:BD11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:T12"/>
-    <mergeCell ref="U12:AO12"/>
-    <mergeCell ref="AP12:BD12"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:AO5"/>
-    <mergeCell ref="AP5:BD5"/>
-    <mergeCell ref="BE5:BS5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="U4:AO4"/>
-    <mergeCell ref="AP4:BD4"/>
-    <mergeCell ref="BE4:BS4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6316,10 +6323,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCC1237-16DD-47FC-9C59-2E49C2F01E8E}">
-  <dimension ref="B2:CP77"/>
+  <dimension ref="B2:CP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6448,45 +6455,45 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
     </row>
     <row r="7" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10"/>
@@ -6499,43 +6506,43 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="16"/>
-      <c r="AP7" s="16"/>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10"/>
@@ -6548,43 +6555,43 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="16"/>
-      <c r="AP8" s="16"/>
-      <c r="AQ8" s="16"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="16"/>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="10"/>
@@ -6597,43 +6604,43 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
     </row>
     <row r="10" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10"/>
@@ -6646,92 +6653,43 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-    </row>
-    <row r="11" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
@@ -8007,75 +7965,71 @@
       <c r="B46" s="1"/>
       <c r="I46" s="5"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="10">
-        <v>2</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10"/>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
-      <c r="AK46" s="10"/>
-      <c r="AL46" s="10"/>
-      <c r="AM46" s="10"/>
-      <c r="AN46" s="10"/>
-      <c r="AO46" s="10"/>
-      <c r="AP46" s="10"/>
-      <c r="AQ46" s="10"/>
-      <c r="AR46" s="10"/>
-      <c r="AS46" s="10"/>
-      <c r="AT46" s="10"/>
-      <c r="AU46" s="10"/>
-      <c r="AV46" s="10"/>
-      <c r="AW46" s="10"/>
-      <c r="AX46" s="10"/>
       <c r="CP46" s="5"/>
     </row>
     <row r="47" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="1"/>
+      <c r="K47" t="s">
+        <v>77</v>
+      </c>
       <c r="CP47" s="5"/>
     </row>
     <row r="48" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B48" s="1"/>
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
-      <c r="K48" t="s">
-        <v>77</v>
-      </c>
       <c r="CP48" s="5"/>
     </row>
     <row r="49" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1"/>
       <c r="I49" s="5"/>
       <c r="J49" s="1"/>
+      <c r="K49" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="10"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="10"/>
+      <c r="AQ49" s="10"/>
+      <c r="AR49" s="10"/>
+      <c r="AS49" s="10"/>
+      <c r="AT49" s="10"/>
+      <c r="AU49" s="10"/>
+      <c r="AV49" s="10"/>
+      <c r="AW49" s="10"/>
+      <c r="AX49" s="10"/>
       <c r="CP49" s="5"/>
     </row>
     <row r="50" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8083,7 +8037,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="1"/>
       <c r="K50" s="10" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
@@ -8130,77 +8084,73 @@
       <c r="B51" s="1"/>
       <c r="I51" s="5"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
-      <c r="AD51" s="10"/>
-      <c r="AE51" s="10"/>
-      <c r="AF51" s="10"/>
-      <c r="AG51" s="10"/>
-      <c r="AH51" s="10"/>
-      <c r="AI51" s="10"/>
-      <c r="AJ51" s="10"/>
-      <c r="AK51" s="10"/>
-      <c r="AL51" s="10"/>
-      <c r="AM51" s="10"/>
-      <c r="AN51" s="10"/>
-      <c r="AO51" s="10"/>
-      <c r="AP51" s="10"/>
-      <c r="AQ51" s="10"/>
-      <c r="AR51" s="10"/>
-      <c r="AS51" s="10"/>
-      <c r="AT51" s="10"/>
-      <c r="AU51" s="10"/>
-      <c r="AV51" s="10"/>
-      <c r="AW51" s="10"/>
-      <c r="AX51" s="10"/>
       <c r="CP51" s="5"/>
     </row>
     <row r="52" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1"/>
       <c r="I52" s="5"/>
       <c r="J52" s="1"/>
+      <c r="K52" t="s">
+        <v>54</v>
+      </c>
       <c r="CP52" s="5"/>
     </row>
     <row r="53" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1"/>
       <c r="I53" s="5"/>
       <c r="J53" s="1"/>
-      <c r="K53" t="s">
-        <v>54</v>
-      </c>
+      <c r="K53" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="10"/>
+      <c r="AO53" s="10"/>
+      <c r="AP53" s="10"/>
       <c r="CP53" s="5"/>
     </row>
     <row r="54" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1"/>
       <c r="I54" s="5"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="10" t="s">
-        <v>5</v>
+      <c r="K54" s="10">
+        <v>1</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
@@ -8215,9 +8165,7 @@
       <c r="Z54" s="10"/>
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
-      <c r="AC54" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="AC54" s="10"/>
       <c r="AD54" s="10"/>
       <c r="AE54" s="10"/>
       <c r="AF54" s="10"/>
@@ -8237,63 +8185,69 @@
       <c r="B55" s="1"/>
       <c r="I55" s="5"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="10">
-        <v>1</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-      <c r="AD55" s="10"/>
-      <c r="AE55" s="10"/>
-      <c r="AF55" s="10"/>
-      <c r="AG55" s="10"/>
-      <c r="AH55" s="10"/>
-      <c r="AI55" s="10"/>
-      <c r="AJ55" s="10"/>
-      <c r="AK55" s="10"/>
-      <c r="AL55" s="10"/>
-      <c r="AM55" s="10"/>
-      <c r="AN55" s="10"/>
-      <c r="AO55" s="10"/>
-      <c r="AP55" s="10"/>
       <c r="CP55" s="5"/>
     </row>
     <row r="56" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1"/>
       <c r="I56" s="5"/>
       <c r="J56" s="1"/>
+      <c r="K56" t="s">
+        <v>56</v>
+      </c>
       <c r="CP56" s="5"/>
     </row>
     <row r="57" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1"/>
       <c r="I57" s="5"/>
       <c r="J57" s="1"/>
-      <c r="K57" t="s">
-        <v>56</v>
-      </c>
       <c r="CP57" s="5"/>
     </row>
     <row r="58" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1"/>
       <c r="I58" s="5"/>
       <c r="J58" s="1"/>
+      <c r="K58" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="10"/>
+      <c r="AO58" s="10"/>
+      <c r="AP58" s="10"/>
+      <c r="AQ58" s="10"/>
+      <c r="AR58" s="10"/>
+      <c r="AS58" s="10"/>
+      <c r="AT58" s="10"/>
+      <c r="AU58" s="10"/>
+      <c r="AV58" s="10"/>
+      <c r="AW58" s="10"/>
+      <c r="AX58" s="10"/>
       <c r="CP58" s="5"/>
     </row>
     <row r="59" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8301,7 +8255,7 @@
       <c r="I59" s="5"/>
       <c r="J59" s="1"/>
       <c r="K59" s="10" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
@@ -8348,48 +8302,6 @@
       <c r="B60" s="1"/>
       <c r="I60" s="5"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="10"/>
-      <c r="AE60" s="10"/>
-      <c r="AF60" s="10"/>
-      <c r="AG60" s="10"/>
-      <c r="AH60" s="10"/>
-      <c r="AI60" s="10"/>
-      <c r="AJ60" s="10"/>
-      <c r="AK60" s="10"/>
-      <c r="AL60" s="10"/>
-      <c r="AM60" s="10"/>
-      <c r="AN60" s="10"/>
-      <c r="AO60" s="10"/>
-      <c r="AP60" s="10"/>
-      <c r="AQ60" s="10"/>
-      <c r="AR60" s="10"/>
-      <c r="AS60" s="10"/>
-      <c r="AT60" s="10"/>
-      <c r="AU60" s="10"/>
-      <c r="AV60" s="10"/>
-      <c r="AW60" s="10"/>
-      <c r="AX60" s="10"/>
       <c r="CP60" s="5"/>
     </row>
     <row r="61" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8400,12 +8312,12 @@
     </row>
     <row r="62" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="1"/>
       <c r="K62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="CP62" s="5"/>
     </row>
@@ -8420,12 +8332,14 @@
       <c r="I64" s="5"/>
       <c r="J64" s="1"/>
       <c r="K64" s="10" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
+      <c r="O64" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
@@ -8439,7 +8353,9 @@
       <c r="Z64" s="10"/>
       <c r="AA64" s="10"/>
       <c r="AB64" s="10"/>
-      <c r="AC64" s="10"/>
+      <c r="AC64" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="AD64" s="10"/>
       <c r="AE64" s="10"/>
       <c r="AF64" s="10"/>
@@ -8467,13 +8383,15 @@
       <c r="B65" s="1"/>
       <c r="I65" s="5"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="10" t="s">
-        <v>79</v>
+      <c r="K65" s="10">
+        <v>1</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
+      <c r="O65" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
@@ -8487,7 +8405,9 @@
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
-      <c r="AC65" s="10"/>
+      <c r="AC65" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="AD65" s="10"/>
       <c r="AE65" s="10"/>
       <c r="AF65" s="10"/>
@@ -8521,110 +8441,119 @@
       <c r="B67" s="1"/>
       <c r="I67" s="5"/>
       <c r="J67" s="1"/>
-      <c r="K67" t="s">
-        <v>23</v>
-      </c>
       <c r="CP67" s="5"/>
     </row>
     <row r="68" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I68" s="5"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
-      <c r="AG68" s="10"/>
-      <c r="AH68" s="10"/>
-      <c r="AI68" s="10"/>
-      <c r="AJ68" s="10"/>
-      <c r="AK68" s="10"/>
-      <c r="AL68" s="10"/>
-      <c r="AM68" s="10"/>
-      <c r="AN68" s="10"/>
-      <c r="AO68" s="10"/>
-      <c r="AP68" s="10"/>
+      <c r="K68" t="s">
+        <v>78</v>
+      </c>
       <c r="CP68" s="5"/>
     </row>
     <row r="69" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1"/>
       <c r="I69" s="5"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="10">
-        <v>1</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="10"/>
-      <c r="AG69" s="10"/>
-      <c r="AH69" s="10"/>
-      <c r="AI69" s="10"/>
-      <c r="AJ69" s="10"/>
-      <c r="AK69" s="10"/>
-      <c r="AL69" s="10"/>
-      <c r="AM69" s="10"/>
-      <c r="AN69" s="10"/>
-      <c r="AO69" s="10"/>
-      <c r="AP69" s="10"/>
       <c r="CP69" s="5"/>
     </row>
     <row r="70" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1"/>
       <c r="I70" s="5"/>
       <c r="J70" s="1"/>
+      <c r="K70" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
+      <c r="AG70" s="10"/>
+      <c r="AH70" s="10"/>
+      <c r="AI70" s="10"/>
+      <c r="AJ70" s="10"/>
+      <c r="AK70" s="10"/>
+      <c r="AL70" s="10"/>
+      <c r="AM70" s="10"/>
+      <c r="AN70" s="10"/>
+      <c r="AO70" s="10"/>
+      <c r="AP70" s="10"/>
+      <c r="AQ70" s="10"/>
+      <c r="AR70" s="10"/>
+      <c r="AS70" s="10"/>
+      <c r="AT70" s="10"/>
+      <c r="AU70" s="10"/>
+      <c r="AV70" s="10"/>
+      <c r="AW70" s="10"/>
+      <c r="AX70" s="10"/>
       <c r="CP70" s="5"/>
     </row>
     <row r="71" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1"/>
       <c r="I71" s="5"/>
       <c r="J71" s="1"/>
-      <c r="K71" t="s">
-        <v>56</v>
-      </c>
+      <c r="K71" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="10"/>
+      <c r="AH71" s="10"/>
+      <c r="AI71" s="10"/>
+      <c r="AJ71" s="10"/>
+      <c r="AK71" s="10"/>
+      <c r="AL71" s="10"/>
+      <c r="AM71" s="10"/>
+      <c r="AN71" s="10"/>
+      <c r="AO71" s="10"/>
+      <c r="AP71" s="10"/>
+      <c r="AQ71" s="10"/>
+      <c r="AR71" s="10"/>
+      <c r="AS71" s="10"/>
+      <c r="AT71" s="10"/>
+      <c r="AU71" s="10"/>
+      <c r="AV71" s="10"/>
+      <c r="AW71" s="10"/>
+      <c r="AX71" s="10"/>
       <c r="CP71" s="5"/>
     </row>
     <row r="72" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8637,59 +8566,24 @@
       <c r="B73" s="1"/>
       <c r="I73" s="5"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="10"/>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
-      <c r="AD73" s="10"/>
-      <c r="AE73" s="10"/>
-      <c r="AF73" s="10"/>
-      <c r="AG73" s="10"/>
-      <c r="AH73" s="10"/>
-      <c r="AI73" s="10"/>
-      <c r="AJ73" s="10"/>
-      <c r="AK73" s="10"/>
-      <c r="AL73" s="10"/>
-      <c r="AM73" s="10"/>
-      <c r="AN73" s="10"/>
-      <c r="AO73" s="10"/>
-      <c r="AP73" s="10"/>
-      <c r="AQ73" s="10"/>
-      <c r="AR73" s="10"/>
-      <c r="AS73" s="10"/>
-      <c r="AT73" s="10"/>
-      <c r="AU73" s="10"/>
-      <c r="AV73" s="10"/>
-      <c r="AW73" s="10"/>
-      <c r="AX73" s="10"/>
+      <c r="K73" t="s">
+        <v>23</v>
+      </c>
       <c r="CP73" s="5"/>
     </row>
     <row r="74" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1"/>
       <c r="I74" s="5"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="10"/>
+      <c r="K74" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
+      <c r="O74" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
@@ -8703,7 +8597,9 @@
       <c r="Z74" s="10"/>
       <c r="AA74" s="10"/>
       <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
+      <c r="AC74" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="AD74" s="10"/>
       <c r="AE74" s="10"/>
       <c r="AF74" s="10"/>
@@ -8717,20 +8613,48 @@
       <c r="AN74" s="10"/>
       <c r="AO74" s="10"/>
       <c r="AP74" s="10"/>
-      <c r="AQ74" s="10"/>
-      <c r="AR74" s="10"/>
-      <c r="AS74" s="10"/>
-      <c r="AT74" s="10"/>
-      <c r="AU74" s="10"/>
-      <c r="AV74" s="10"/>
-      <c r="AW74" s="10"/>
-      <c r="AX74" s="10"/>
       <c r="CP74" s="5"/>
     </row>
     <row r="75" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1"/>
       <c r="I75" s="5"/>
       <c r="J75" s="1"/>
+      <c r="K75" s="10">
+        <v>1</v>
+      </c>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="10"/>
+      <c r="AI75" s="10"/>
+      <c r="AJ75" s="10"/>
+      <c r="AK75" s="10"/>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="10"/>
+      <c r="AO75" s="10"/>
+      <c r="AP75" s="10"/>
       <c r="CP75" s="5"/>
     </row>
     <row r="76" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8740,157 +8664,256 @@
       <c r="CP76" s="5"/>
     </row>
     <row r="77" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="1"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="1"/>
+      <c r="K77" t="s">
+        <v>56</v>
+      </c>
+      <c r="CP77" s="5"/>
+    </row>
+    <row r="78" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="1"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="1"/>
+      <c r="CP78" s="5"/>
+    </row>
+    <row r="79" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="1"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
+      <c r="AC79" s="10"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="10"/>
+      <c r="AF79" s="10"/>
+      <c r="AG79" s="10"/>
+      <c r="AH79" s="10"/>
+      <c r="AI79" s="10"/>
+      <c r="AJ79" s="10"/>
+      <c r="AK79" s="10"/>
+      <c r="AL79" s="10"/>
+      <c r="AM79" s="10"/>
+      <c r="AN79" s="10"/>
+      <c r="AO79" s="10"/>
+      <c r="AP79" s="10"/>
+      <c r="AQ79" s="10"/>
+      <c r="AR79" s="10"/>
+      <c r="AS79" s="10"/>
+      <c r="AT79" s="10"/>
+      <c r="AU79" s="10"/>
+      <c r="AV79" s="10"/>
+      <c r="AW79" s="10"/>
+      <c r="AX79" s="10"/>
+      <c r="CP79" s="5"/>
+    </row>
+    <row r="80" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="1"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="10"/>
+      <c r="AF80" s="10"/>
+      <c r="AG80" s="10"/>
+      <c r="AH80" s="10"/>
+      <c r="AI80" s="10"/>
+      <c r="AJ80" s="10"/>
+      <c r="AK80" s="10"/>
+      <c r="AL80" s="10"/>
+      <c r="AM80" s="10"/>
+      <c r="AN80" s="10"/>
+      <c r="AO80" s="10"/>
+      <c r="AP80" s="10"/>
+      <c r="AQ80" s="10"/>
+      <c r="AR80" s="10"/>
+      <c r="AS80" s="10"/>
+      <c r="AT80" s="10"/>
+      <c r="AU80" s="10"/>
+      <c r="AV80" s="10"/>
+      <c r="AW80" s="10"/>
+      <c r="AX80" s="10"/>
+      <c r="CP80" s="5"/>
+    </row>
+    <row r="81" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="1"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="1"/>
+      <c r="CP81" s="5"/>
+    </row>
+    <row r="82" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="1"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="1"/>
+      <c r="CP82" s="5"/>
+    </row>
+    <row r="83" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="7" t="s">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="7"/>
-      <c r="W77" s="7"/>
-      <c r="X77" s="7"/>
-      <c r="Y77" s="7"/>
-      <c r="Z77" s="7"/>
-      <c r="AA77" s="7"/>
-      <c r="AB77" s="7"/>
-      <c r="AC77" s="7"/>
-      <c r="AD77" s="7"/>
-      <c r="AE77" s="7"/>
-      <c r="AF77" s="7"/>
-      <c r="AG77" s="7"/>
-      <c r="AH77" s="7"/>
-      <c r="AI77" s="7"/>
-      <c r="AJ77" s="7"/>
-      <c r="AK77" s="7"/>
-      <c r="AL77" s="7"/>
-      <c r="AM77" s="7"/>
-      <c r="AN77" s="7"/>
-      <c r="AO77" s="7"/>
-      <c r="AP77" s="7"/>
-      <c r="AQ77" s="7"/>
-      <c r="AR77" s="7"/>
-      <c r="AS77" s="7"/>
-      <c r="AT77" s="7"/>
-      <c r="AU77" s="7"/>
-      <c r="AV77" s="7"/>
-      <c r="AW77" s="7"/>
-      <c r="AX77" s="7"/>
-      <c r="AY77" s="7"/>
-      <c r="AZ77" s="7"/>
-      <c r="BA77" s="7"/>
-      <c r="BB77" s="7"/>
-      <c r="BC77" s="7"/>
-      <c r="BD77" s="7"/>
-      <c r="BE77" s="7"/>
-      <c r="BF77" s="7"/>
-      <c r="BG77" s="7"/>
-      <c r="BH77" s="7"/>
-      <c r="BI77" s="7"/>
-      <c r="BJ77" s="7"/>
-      <c r="BK77" s="7"/>
-      <c r="BL77" s="7"/>
-      <c r="BM77" s="7"/>
-      <c r="BN77" s="7"/>
-      <c r="BO77" s="7"/>
-      <c r="BP77" s="7"/>
-      <c r="BQ77" s="7"/>
-      <c r="BR77" s="7"/>
-      <c r="BS77" s="7"/>
-      <c r="BT77" s="7"/>
-      <c r="BU77" s="7"/>
-      <c r="BV77" s="7"/>
-      <c r="BW77" s="7"/>
-      <c r="BX77" s="7"/>
-      <c r="BY77" s="7"/>
-      <c r="BZ77" s="7"/>
-      <c r="CA77" s="7"/>
-      <c r="CB77" s="7"/>
-      <c r="CC77" s="7"/>
-      <c r="CD77" s="7"/>
-      <c r="CE77" s="7"/>
-      <c r="CF77" s="7"/>
-      <c r="CG77" s="7"/>
-      <c r="CH77" s="7"/>
-      <c r="CI77" s="7"/>
-      <c r="CJ77" s="7"/>
-      <c r="CK77" s="7"/>
-      <c r="CL77" s="7"/>
-      <c r="CM77" s="7"/>
-      <c r="CN77" s="7"/>
-      <c r="CO77" s="7"/>
-      <c r="CP77" s="8"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="7"/>
+      <c r="AH83" s="7"/>
+      <c r="AI83" s="7"/>
+      <c r="AJ83" s="7"/>
+      <c r="AK83" s="7"/>
+      <c r="AL83" s="7"/>
+      <c r="AM83" s="7"/>
+      <c r="AN83" s="7"/>
+      <c r="AO83" s="7"/>
+      <c r="AP83" s="7"/>
+      <c r="AQ83" s="7"/>
+      <c r="AR83" s="7"/>
+      <c r="AS83" s="7"/>
+      <c r="AT83" s="7"/>
+      <c r="AU83" s="7"/>
+      <c r="AV83" s="7"/>
+      <c r="AW83" s="7"/>
+      <c r="AX83" s="7"/>
+      <c r="AY83" s="7"/>
+      <c r="AZ83" s="7"/>
+      <c r="BA83" s="7"/>
+      <c r="BB83" s="7"/>
+      <c r="BC83" s="7"/>
+      <c r="BD83" s="7"/>
+      <c r="BE83" s="7"/>
+      <c r="BF83" s="7"/>
+      <c r="BG83" s="7"/>
+      <c r="BH83" s="7"/>
+      <c r="BI83" s="7"/>
+      <c r="BJ83" s="7"/>
+      <c r="BK83" s="7"/>
+      <c r="BL83" s="7"/>
+      <c r="BM83" s="7"/>
+      <c r="BN83" s="7"/>
+      <c r="BO83" s="7"/>
+      <c r="BP83" s="7"/>
+      <c r="BQ83" s="7"/>
+      <c r="BR83" s="7"/>
+      <c r="BS83" s="7"/>
+      <c r="BT83" s="7"/>
+      <c r="BU83" s="7"/>
+      <c r="BV83" s="7"/>
+      <c r="BW83" s="7"/>
+      <c r="BX83" s="7"/>
+      <c r="BY83" s="7"/>
+      <c r="BZ83" s="7"/>
+      <c r="CA83" s="7"/>
+      <c r="CB83" s="7"/>
+      <c r="CC83" s="7"/>
+      <c r="CD83" s="7"/>
+      <c r="CE83" s="7"/>
+      <c r="CF83" s="7"/>
+      <c r="CG83" s="7"/>
+      <c r="CH83" s="7"/>
+      <c r="CI83" s="7"/>
+      <c r="CJ83" s="7"/>
+      <c r="CK83" s="7"/>
+      <c r="CL83" s="7"/>
+      <c r="CM83" s="7"/>
+      <c r="CN83" s="7"/>
+      <c r="CO83" s="7"/>
+      <c r="CP83" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="K73:AX73"/>
-    <mergeCell ref="K74:AX74"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="O68:AB68"/>
-    <mergeCell ref="AC68:AP68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="O69:AB69"/>
-    <mergeCell ref="AC69:AP69"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="O46:AB46"/>
-    <mergeCell ref="AC46:AX46"/>
-    <mergeCell ref="K64:AX64"/>
-    <mergeCell ref="K65:AX65"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="T29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="J38:CP38"/>
-    <mergeCell ref="AP32:BJ32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:S33"/>
-    <mergeCell ref="T33:AO33"/>
-    <mergeCell ref="AP33:BJ33"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="O44:AB44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="O45:AB45"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="O54:AB54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="O55:AB55"/>
-    <mergeCell ref="K50:AX50"/>
-    <mergeCell ref="K51:AX51"/>
-    <mergeCell ref="AC44:AX44"/>
-    <mergeCell ref="AC45:AX45"/>
-    <mergeCell ref="AC54:AP54"/>
-    <mergeCell ref="AC55:AP55"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:S32"/>
-    <mergeCell ref="T32:AO32"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="P24:AK24"/>
-    <mergeCell ref="AL24:BF24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="P25:AK25"/>
-    <mergeCell ref="AL25:BF25"/>
-    <mergeCell ref="F30:S30"/>
-    <mergeCell ref="T30:AO30"/>
-    <mergeCell ref="AP30:BJ30"/>
+  <mergeCells count="94">
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="O65:AB65"/>
+    <mergeCell ref="AC65:AX65"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="T16:AO16"/>
+    <mergeCell ref="AP16:BJ16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:S17"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:S14"/>
+    <mergeCell ref="T14:AO14"/>
+    <mergeCell ref="AP14:BJ14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="T15:AO15"/>
+    <mergeCell ref="AP15:BJ15"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:AV4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:AV5"/>
+    <mergeCell ref="B6:K10"/>
+    <mergeCell ref="L6:AV10"/>
+    <mergeCell ref="T17:AO17"/>
+    <mergeCell ref="AP17:BJ17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:S18"/>
+    <mergeCell ref="T18:AO18"/>
+    <mergeCell ref="AP18:BJ18"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="F31:S31"/>
     <mergeCell ref="T31:AO31"/>
@@ -8903,34 +8926,59 @@
     <mergeCell ref="F20:S20"/>
     <mergeCell ref="T20:AO20"/>
     <mergeCell ref="AP20:BJ20"/>
-    <mergeCell ref="T17:AO17"/>
-    <mergeCell ref="AP17:BJ17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:S18"/>
-    <mergeCell ref="T18:AO18"/>
-    <mergeCell ref="AP18:BJ18"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:AV4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:AV5"/>
-    <mergeCell ref="B6:K10"/>
-    <mergeCell ref="L6:AV10"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="P24:AK24"/>
+    <mergeCell ref="AL24:BF24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="P25:AK25"/>
+    <mergeCell ref="AL25:BF25"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="O44:AB44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="O45:AB45"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:AB53"/>
+    <mergeCell ref="K49:AX49"/>
+    <mergeCell ref="K50:AX50"/>
+    <mergeCell ref="AC44:AX44"/>
+    <mergeCell ref="AC45:AX45"/>
+    <mergeCell ref="AC53:AP53"/>
+    <mergeCell ref="J38:CP38"/>
+    <mergeCell ref="AP32:BJ32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:S33"/>
+    <mergeCell ref="T33:AO33"/>
+    <mergeCell ref="AP33:BJ33"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:S32"/>
+    <mergeCell ref="T32:AO32"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="T29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="T30:AO30"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="K70:AX70"/>
+    <mergeCell ref="K71:AX71"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="O54:AB54"/>
+    <mergeCell ref="AC54:AP54"/>
+    <mergeCell ref="K58:AX58"/>
     <mergeCell ref="K59:AX59"/>
-    <mergeCell ref="K60:AX60"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:S14"/>
-    <mergeCell ref="T14:AO14"/>
-    <mergeCell ref="AP14:BJ14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="T15:AO15"/>
-    <mergeCell ref="AP15:BJ15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="T16:AO16"/>
-    <mergeCell ref="AP16:BJ16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:S17"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="O64:AB64"/>
+    <mergeCell ref="AC64:AX64"/>
+    <mergeCell ref="K79:AX79"/>
+    <mergeCell ref="K80:AX80"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="O74:AB74"/>
+    <mergeCell ref="AC74:AP74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="O75:AB75"/>
+    <mergeCell ref="AC75:AP75"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/docs/pg0003/アプリケーション詳細設計書.xlsx
+++ b/document/docs/pg0003/アプリケーション詳細設計書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\pythonbase\document\docs\pg0003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\document\docs\pg0003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2788BF7-F008-4A3E-BC11-CEE1790C6DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90399AE-03ED-44D6-8447-8743AEB03456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>プログラムコード</t>
     <phoneticPr fontId="1"/>
@@ -266,26 +266,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.引数</t>
-    <rPh sb="2" eb="4">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>引数名</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>型</t>
-    <rPh sb="0" eb="1">
-      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -666,6 +652,20 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.コマンド引数</t>
+    <rPh sb="6" eb="8">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -897,10 +897,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,7 +1226,7 @@
   <sheetData>
     <row r="3" spans="3:97" ht="32.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1549,7 +1549,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2603,6 +2603,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:CQ4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:CQ5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:CQ6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:CQ7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:CQ8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:CQ9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:CQ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:CQ11"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:CQ15"/>
     <mergeCell ref="B12:E12"/>
@@ -2611,23 +2628,6 @@
     <mergeCell ref="F13:CQ13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:CQ14"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:CQ9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:CQ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:CQ11"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:CQ6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:CQ7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:CQ8"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:CQ4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:CQ5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2760,7 +2760,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -2863,7 +2863,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -2894,7 +2894,7 @@
       <c r="AQ5" s="12"/>
       <c r="AR5" s="13"/>
       <c r="AS5" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT5" s="10"/>
       <c r="AU5" s="10"/>
@@ -3168,7 +3168,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="9" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -3269,7 +3269,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -4025,6 +4025,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="G14:W14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="X12:AN12"/>
+    <mergeCell ref="G13:W13"/>
+    <mergeCell ref="G12:W12"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C5:O5"/>
+    <mergeCell ref="P4:AR4"/>
+    <mergeCell ref="AS4:CS4"/>
+    <mergeCell ref="P5:AR5"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:W23"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:W18"/>
+    <mergeCell ref="X18:AN18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:W19"/>
+    <mergeCell ref="X19:AN19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:W22"/>
+    <mergeCell ref="AO15:BE15"/>
+    <mergeCell ref="G15:W15"/>
+    <mergeCell ref="X15:AN15"/>
+    <mergeCell ref="X14:AN14"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="AS5:CS9"/>
+    <mergeCell ref="X13:AN13"/>
+    <mergeCell ref="AO12:BE12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="P6:AR6"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="AO13:BE13"/>
+    <mergeCell ref="AO14:BE14"/>
+    <mergeCell ref="C7:O7"/>
+    <mergeCell ref="P7:AR7"/>
     <mergeCell ref="AO18:BE18"/>
     <mergeCell ref="BW23:CM23"/>
     <mergeCell ref="C24:F24"/>
@@ -4036,52 +4077,11 @@
     <mergeCell ref="X23:AN23"/>
     <mergeCell ref="AO23:BE23"/>
     <mergeCell ref="BF23:BV23"/>
-    <mergeCell ref="AO15:BE15"/>
-    <mergeCell ref="G15:W15"/>
-    <mergeCell ref="X15:AN15"/>
-    <mergeCell ref="X14:AN14"/>
-    <mergeCell ref="C9:O9"/>
-    <mergeCell ref="P9:AR9"/>
-    <mergeCell ref="AS5:CS9"/>
-    <mergeCell ref="X13:AN13"/>
-    <mergeCell ref="AO12:BE12"/>
     <mergeCell ref="BW22:CM22"/>
     <mergeCell ref="X22:AN22"/>
     <mergeCell ref="AO22:BE22"/>
     <mergeCell ref="BF22:BV22"/>
     <mergeCell ref="AO19:BE19"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:W23"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:W18"/>
-    <mergeCell ref="X18:AN18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:W19"/>
-    <mergeCell ref="X19:AN19"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:W22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C5:O5"/>
-    <mergeCell ref="P4:AR4"/>
-    <mergeCell ref="AS4:CS4"/>
-    <mergeCell ref="P5:AR5"/>
-    <mergeCell ref="P6:AR6"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="AO13:BE13"/>
-    <mergeCell ref="AO14:BE14"/>
-    <mergeCell ref="C7:O7"/>
-    <mergeCell ref="P7:AR7"/>
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="G14:W14"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="X12:AN12"/>
-    <mergeCell ref="G13:W13"/>
-    <mergeCell ref="G12:W12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6179,16 +6179,108 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:AO5"/>
-    <mergeCell ref="AP5:BD5"/>
-    <mergeCell ref="BE5:BS5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="U4:AO4"/>
-    <mergeCell ref="AP4:BD4"/>
-    <mergeCell ref="BE4:BS4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:T6"/>
+    <mergeCell ref="U6:AO6"/>
+    <mergeCell ref="AP6:BD6"/>
+    <mergeCell ref="BE6:BS6"/>
+    <mergeCell ref="CO19:DC19"/>
+    <mergeCell ref="CO20:DC20"/>
+    <mergeCell ref="CO21:DC21"/>
+    <mergeCell ref="CO22:DC22"/>
+    <mergeCell ref="BZ21:CN21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:T20"/>
+    <mergeCell ref="U20:AO20"/>
+    <mergeCell ref="AP20:BJ20"/>
+    <mergeCell ref="BK20:BY20"/>
+    <mergeCell ref="BZ20:CN20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:T21"/>
+    <mergeCell ref="U21:AO21"/>
+    <mergeCell ref="AP21:BJ21"/>
+    <mergeCell ref="BK21:BY21"/>
+    <mergeCell ref="BZ19:CN19"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:T10"/>
+    <mergeCell ref="CO23:DC23"/>
+    <mergeCell ref="CO31:DC31"/>
+    <mergeCell ref="CO25:DC25"/>
+    <mergeCell ref="CO26:DC26"/>
+    <mergeCell ref="CO27:DC27"/>
+    <mergeCell ref="CO28:DC28"/>
+    <mergeCell ref="CO29:DC29"/>
+    <mergeCell ref="CO30:DC30"/>
+    <mergeCell ref="CO24:DC24"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:T31"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="AP31:BJ31"/>
+    <mergeCell ref="BK31:BY31"/>
+    <mergeCell ref="BZ31:CN31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:T30"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="BK30:BY30"/>
+    <mergeCell ref="BZ30:CN30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:T29"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="BK29:BY29"/>
+    <mergeCell ref="BZ29:CN29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:T28"/>
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="BK28:BY28"/>
+    <mergeCell ref="BZ28:CN28"/>
+    <mergeCell ref="BZ27:CN27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:T26"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="AP26:BJ26"/>
+    <mergeCell ref="BK26:BY26"/>
+    <mergeCell ref="BZ26:CN26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:T27"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="BK27:BY27"/>
+    <mergeCell ref="BZ25:CN25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:T24"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="BK24:BY24"/>
+    <mergeCell ref="BZ24:CN24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:T25"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="BK25:BY25"/>
+    <mergeCell ref="BZ23:CN23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:T22"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="BK22:BY22"/>
+    <mergeCell ref="BZ22:CN22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:T23"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
+    <mergeCell ref="BK23:BY23"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:T19"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="AP19:BJ19"/>
+    <mergeCell ref="BK19:BY19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:T15"/>
+    <mergeCell ref="U15:AO15"/>
+    <mergeCell ref="AP15:BD15"/>
     <mergeCell ref="BE10:BS10"/>
     <mergeCell ref="BE11:BS11"/>
     <mergeCell ref="BE12:BS12"/>
@@ -6213,108 +6305,16 @@
     <mergeCell ref="F12:T12"/>
     <mergeCell ref="U12:AO12"/>
     <mergeCell ref="AP12:BD12"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:T19"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="AP19:BJ19"/>
-    <mergeCell ref="BK19:BY19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:T15"/>
-    <mergeCell ref="U15:AO15"/>
-    <mergeCell ref="AP15:BD15"/>
-    <mergeCell ref="BZ23:CN23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:T22"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="AP22:BJ22"/>
-    <mergeCell ref="BK22:BY22"/>
-    <mergeCell ref="BZ22:CN22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:T23"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="AP23:BJ23"/>
-    <mergeCell ref="BK23:BY23"/>
-    <mergeCell ref="BZ25:CN25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:T24"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="AP24:BJ24"/>
-    <mergeCell ref="BK24:BY24"/>
-    <mergeCell ref="BZ24:CN24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:T25"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="BK25:BY25"/>
-    <mergeCell ref="BZ27:CN27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:T26"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="BK26:BY26"/>
-    <mergeCell ref="BZ26:CN26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:T27"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="BK27:BY27"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:T29"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="BK29:BY29"/>
-    <mergeCell ref="BZ29:CN29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:T28"/>
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="BK28:BY28"/>
-    <mergeCell ref="BZ28:CN28"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:T31"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="BK31:BY31"/>
-    <mergeCell ref="BZ31:CN31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:T30"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="AP30:BJ30"/>
-    <mergeCell ref="BK30:BY30"/>
-    <mergeCell ref="BZ30:CN30"/>
-    <mergeCell ref="CO23:DC23"/>
-    <mergeCell ref="CO31:DC31"/>
-    <mergeCell ref="CO25:DC25"/>
-    <mergeCell ref="CO26:DC26"/>
-    <mergeCell ref="CO27:DC27"/>
-    <mergeCell ref="CO28:DC28"/>
-    <mergeCell ref="CO29:DC29"/>
-    <mergeCell ref="CO30:DC30"/>
-    <mergeCell ref="CO24:DC24"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:T6"/>
-    <mergeCell ref="U6:AO6"/>
-    <mergeCell ref="AP6:BD6"/>
-    <mergeCell ref="BE6:BS6"/>
-    <mergeCell ref="CO19:DC19"/>
-    <mergeCell ref="CO20:DC20"/>
-    <mergeCell ref="CO21:DC21"/>
-    <mergeCell ref="CO22:DC22"/>
-    <mergeCell ref="BZ21:CN21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:T20"/>
-    <mergeCell ref="U20:AO20"/>
-    <mergeCell ref="AP20:BJ20"/>
-    <mergeCell ref="BK20:BY20"/>
-    <mergeCell ref="BZ20:CN20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:T21"/>
-    <mergeCell ref="U21:AO21"/>
-    <mergeCell ref="AP21:BJ21"/>
-    <mergeCell ref="BK21:BY21"/>
-    <mergeCell ref="BZ19:CN19"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:T10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:AO5"/>
+    <mergeCell ref="AP5:BD5"/>
+    <mergeCell ref="BE5:BS5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="U4:AO4"/>
+    <mergeCell ref="AP4:BD4"/>
+    <mergeCell ref="BE4:BS4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6326,17 +6326,17 @@
   <dimension ref="B2:CP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+      <selection activeCell="BJ1" sqref="BJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
@@ -6350,7 +6350,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -6389,7 +6389,7 @@
       <c r="AU4" s="10"/>
       <c r="AV4" s="10"/>
     </row>
-    <row r="5" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
@@ -6403,7 +6403,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -6442,7 +6442,7 @@
       <c r="AU5" s="10"/>
       <c r="AV5" s="10"/>
     </row>
-    <row r="6" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
@@ -6455,47 +6455,47 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-    </row>
-    <row r="7" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="L6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+    </row>
+    <row r="7" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6506,45 +6506,45 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-    </row>
-    <row r="8" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+    </row>
+    <row r="8" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -6555,45 +6555,45 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-    </row>
-    <row r="9" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+    </row>
+    <row r="9" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -6604,45 +6604,45 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-    </row>
-    <row r="10" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+    </row>
+    <row r="10" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -6653,50 +6653,50 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="15"/>
-    </row>
-    <row r="12" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+    </row>
+    <row r="12" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>5</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -6743,31 +6743,8 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="10"/>
       <c r="AO14" s="10"/>
-      <c r="AP14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
-      <c r="BF14" s="10"/>
-      <c r="BG14" s="10"/>
-      <c r="BH14" s="10"/>
-      <c r="BI14" s="10"/>
-      <c r="BJ14" s="10"/>
-    </row>
-    <row r="15" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -6808,29 +6785,8 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="10"/>
       <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="10"/>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="10"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
-      <c r="BE15" s="10"/>
-      <c r="BF15" s="10"/>
-      <c r="BG15" s="10"/>
-      <c r="BH15" s="10"/>
-      <c r="BI15" s="10"/>
-      <c r="BJ15" s="10"/>
-    </row>
-    <row r="16" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -6871,27 +6827,6 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="10"/>
       <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
-      <c r="BF16" s="10"/>
-      <c r="BG16" s="10"/>
-      <c r="BH16" s="10"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="10"/>
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="10"/>
@@ -6934,27 +6869,6 @@
       <c r="AM17" s="10"/>
       <c r="AN17" s="10"/>
       <c r="AO17" s="10"/>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="10"/>
-      <c r="BF17" s="10"/>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="10"/>
-      <c r="BI17" s="10"/>
-      <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="10"/>
@@ -6997,27 +6911,6 @@
       <c r="AM18" s="10"/>
       <c r="AN18" s="10"/>
       <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="10"/>
-      <c r="AV18" s="10"/>
-      <c r="AW18" s="10"/>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="10"/>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="10"/>
-      <c r="BC18" s="10"/>
-      <c r="BD18" s="10"/>
-      <c r="BE18" s="10"/>
-      <c r="BF18" s="10"/>
-      <c r="BG18" s="10"/>
-      <c r="BH18" s="10"/>
-      <c r="BI18" s="10"/>
-      <c r="BJ18" s="10"/>
     </row>
     <row r="19" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="10"/>
@@ -7060,27 +6953,6 @@
       <c r="AM19" s="10"/>
       <c r="AN19" s="10"/>
       <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="10"/>
-      <c r="AV19" s="10"/>
-      <c r="AW19" s="10"/>
-      <c r="AX19" s="10"/>
-      <c r="AY19" s="10"/>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="10"/>
-      <c r="BB19" s="10"/>
-      <c r="BC19" s="10"/>
-      <c r="BD19" s="10"/>
-      <c r="BE19" s="10"/>
-      <c r="BF19" s="10"/>
-      <c r="BG19" s="10"/>
-      <c r="BH19" s="10"/>
-      <c r="BI19" s="10"/>
-      <c r="BJ19" s="10"/>
     </row>
     <row r="20" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="10"/>
@@ -7123,31 +6995,10 @@
       <c r="AM20" s="10"/>
       <c r="AN20" s="10"/>
       <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
-      <c r="AY20" s="10"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
-      <c r="BD20" s="10"/>
-      <c r="BE20" s="10"/>
-      <c r="BF20" s="10"/>
-      <c r="BG20" s="10"/>
-      <c r="BH20" s="10"/>
-      <c r="BI20" s="10"/>
-      <c r="BJ20" s="10"/>
     </row>
     <row r="22" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:62" x14ac:dyDescent="0.55000000000000004">
@@ -7191,29 +7042,6 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
-      <c r="AL24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10"/>
-      <c r="AV24" s="10"/>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="10"/>
-      <c r="AY24" s="10"/>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="10"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="10"/>
-      <c r="BF24" s="10"/>
     </row>
     <row r="25" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="10"/>
@@ -7252,31 +7080,10 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="10"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10"/>
-      <c r="AV25" s="10"/>
-      <c r="AW25" s="10"/>
-      <c r="AX25" s="10"/>
-      <c r="AY25" s="10"/>
-      <c r="AZ25" s="10"/>
-      <c r="BA25" s="10"/>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="10"/>
-      <c r="BF25" s="10"/>
     </row>
     <row r="27" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:62" x14ac:dyDescent="0.55000000000000004">
@@ -7287,7 +7094,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -7327,7 +7134,7 @@
       <c r="AN29" s="10"/>
       <c r="AO29" s="10"/>
       <c r="AP29" s="10" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AQ29" s="10"/>
       <c r="AR29" s="10"/>
@@ -7358,7 +7165,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -7374,7 +7181,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -7427,7 +7234,7 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -7443,7 +7250,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -7496,7 +7303,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -7512,7 +7319,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -7622,12 +7429,12 @@
     </row>
     <row r="36" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -7636,97 +7443,97 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="14"/>
-      <c r="AM38" s="14"/>
-      <c r="AN38" s="14"/>
-      <c r="AO38" s="14"/>
-      <c r="AP38" s="14"/>
-      <c r="AQ38" s="14"/>
-      <c r="AR38" s="14"/>
-      <c r="AS38" s="14"/>
-      <c r="AT38" s="14"/>
-      <c r="AU38" s="14"/>
-      <c r="AV38" s="14"/>
-      <c r="AW38" s="14"/>
-      <c r="AX38" s="14"/>
-      <c r="AY38" s="14"/>
-      <c r="AZ38" s="14"/>
-      <c r="BA38" s="14"/>
-      <c r="BB38" s="14"/>
-      <c r="BC38" s="14"/>
-      <c r="BD38" s="14"/>
-      <c r="BE38" s="14"/>
-      <c r="BF38" s="14"/>
-      <c r="BG38" s="14"/>
-      <c r="BH38" s="14"/>
-      <c r="BI38" s="14"/>
-      <c r="BJ38" s="14"/>
-      <c r="BK38" s="14"/>
-      <c r="BL38" s="14"/>
-      <c r="BM38" s="14"/>
-      <c r="BN38" s="14"/>
-      <c r="BO38" s="14"/>
-      <c r="BP38" s="14"/>
-      <c r="BQ38" s="14"/>
-      <c r="BR38" s="14"/>
-      <c r="BS38" s="14"/>
-      <c r="BT38" s="14"/>
-      <c r="BU38" s="14"/>
-      <c r="BV38" s="14"/>
-      <c r="BW38" s="14"/>
-      <c r="BX38" s="14"/>
-      <c r="BY38" s="14"/>
-      <c r="BZ38" s="14"/>
-      <c r="CA38" s="14"/>
-      <c r="CB38" s="14"/>
-      <c r="CC38" s="14"/>
-      <c r="CD38" s="14"/>
-      <c r="CE38" s="14"/>
-      <c r="CF38" s="14"/>
-      <c r="CG38" s="14"/>
-      <c r="CH38" s="14"/>
-      <c r="CI38" s="14"/>
-      <c r="CJ38" s="14"/>
-      <c r="CK38" s="14"/>
-      <c r="CL38" s="14"/>
-      <c r="CM38" s="14"/>
-      <c r="CN38" s="14"/>
-      <c r="CO38" s="14"/>
-      <c r="CP38" s="14"/>
+      <c r="J38" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="15"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="15"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="15"/>
+      <c r="AQ38" s="15"/>
+      <c r="AR38" s="15"/>
+      <c r="AS38" s="15"/>
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
+      <c r="AW38" s="15"/>
+      <c r="AX38" s="15"/>
+      <c r="AY38" s="15"/>
+      <c r="AZ38" s="15"/>
+      <c r="BA38" s="15"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="15"/>
+      <c r="BD38" s="15"/>
+      <c r="BE38" s="15"/>
+      <c r="BF38" s="15"/>
+      <c r="BG38" s="15"/>
+      <c r="BH38" s="15"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="15"/>
+      <c r="BK38" s="15"/>
+      <c r="BL38" s="15"/>
+      <c r="BM38" s="15"/>
+      <c r="BN38" s="15"/>
+      <c r="BO38" s="15"/>
+      <c r="BP38" s="15"/>
+      <c r="BQ38" s="15"/>
+      <c r="BR38" s="15"/>
+      <c r="BS38" s="15"/>
+      <c r="BT38" s="15"/>
+      <c r="BU38" s="15"/>
+      <c r="BV38" s="15"/>
+      <c r="BW38" s="15"/>
+      <c r="BX38" s="15"/>
+      <c r="BY38" s="15"/>
+      <c r="BZ38" s="15"/>
+      <c r="CA38" s="15"/>
+      <c r="CB38" s="15"/>
+      <c r="CC38" s="15"/>
+      <c r="CD38" s="15"/>
+      <c r="CE38" s="15"/>
+      <c r="CF38" s="15"/>
+      <c r="CG38" s="15"/>
+      <c r="CH38" s="15"/>
+      <c r="CI38" s="15"/>
+      <c r="CJ38" s="15"/>
+      <c r="CK38" s="15"/>
+      <c r="CL38" s="15"/>
+      <c r="CM38" s="15"/>
+      <c r="CN38" s="15"/>
+      <c r="CO38" s="15"/>
+      <c r="CP38" s="15"/>
     </row>
     <row r="39" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -7737,7 +7544,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="2"/>
       <c r="K39" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -7825,12 +7632,12 @@
     </row>
     <row r="40" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="1"/>
       <c r="K40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="CP40" s="5"/>
     </row>
@@ -7842,12 +7649,12 @@
     </row>
     <row r="42" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="1"/>
       <c r="K42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="CP42" s="5"/>
     </row>
@@ -7868,7 +7675,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
@@ -7884,7 +7691,7 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
       <c r="AC44" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
@@ -7920,7 +7727,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
@@ -7936,7 +7743,7 @@
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
       <c r="AC45" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
@@ -7969,12 +7776,12 @@
     </row>
     <row r="47" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="1"/>
       <c r="K47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CP47" s="5"/>
     </row>
@@ -7989,7 +7796,7 @@
       <c r="I49" s="5"/>
       <c r="J49" s="1"/>
       <c r="K49" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -8037,7 +7844,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="1"/>
       <c r="K50" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
@@ -8091,7 +7898,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="1"/>
       <c r="K52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="CP52" s="5"/>
     </row>
@@ -8106,7 +7913,7 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
@@ -8122,7 +7929,7 @@
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AD53" s="10"/>
       <c r="AE53" s="10"/>
@@ -8150,7 +7957,7 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
@@ -8192,7 +7999,7 @@
       <c r="I56" s="5"/>
       <c r="J56" s="1"/>
       <c r="K56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="CP56" s="5"/>
     </row>
@@ -8207,7 +8014,7 @@
       <c r="I58" s="5"/>
       <c r="J58" s="1"/>
       <c r="K58" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
@@ -8255,7 +8062,7 @@
       <c r="I59" s="5"/>
       <c r="J59" s="1"/>
       <c r="K59" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
@@ -8312,12 +8119,12 @@
     </row>
     <row r="62" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="1"/>
       <c r="K62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CP62" s="5"/>
     </row>
@@ -8338,7 +8145,7 @@
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
@@ -8354,7 +8161,7 @@
       <c r="AA64" s="10"/>
       <c r="AB64" s="10"/>
       <c r="AC64" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AD64" s="10"/>
       <c r="AE64" s="10"/>
@@ -8390,7 +8197,7 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
@@ -8406,7 +8213,7 @@
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
       <c r="AC65" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AD65" s="10"/>
       <c r="AE65" s="10"/>
@@ -8445,12 +8252,12 @@
     </row>
     <row r="68" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="1"/>
       <c r="K68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CP68" s="5"/>
     </row>
@@ -8465,7 +8272,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="1"/>
       <c r="K70" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
@@ -8513,7 +8320,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="1"/>
       <c r="K71" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
@@ -8582,7 +8389,7 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
@@ -8598,7 +8405,7 @@
       <c r="AA74" s="10"/>
       <c r="AB74" s="10"/>
       <c r="AC74" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AD74" s="10"/>
       <c r="AE74" s="10"/>
@@ -8626,7 +8433,7 @@
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
@@ -8668,7 +8475,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="1"/>
       <c r="K77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="CP77" s="5"/>
     </row>
@@ -8683,7 +8490,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="1"/>
       <c r="K79" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
@@ -8786,7 +8593,7 @@
     </row>
     <row r="83" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -8797,7 +8604,7 @@
       <c r="I83" s="8"/>
       <c r="J83" s="6"/>
       <c r="K83" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -8884,83 +8691,15 @@
       <c r="CP83" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="O65:AB65"/>
-    <mergeCell ref="AC65:AX65"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="T16:AO16"/>
-    <mergeCell ref="AP16:BJ16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:S17"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:S14"/>
-    <mergeCell ref="T14:AO14"/>
-    <mergeCell ref="AP14:BJ14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="T15:AO15"/>
-    <mergeCell ref="AP15:BJ15"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:AV4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:AV5"/>
-    <mergeCell ref="B6:K10"/>
-    <mergeCell ref="L6:AV10"/>
-    <mergeCell ref="T17:AO17"/>
-    <mergeCell ref="AP17:BJ17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:S18"/>
-    <mergeCell ref="T18:AO18"/>
-    <mergeCell ref="AP18:BJ18"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:S31"/>
-    <mergeCell ref="T31:AO31"/>
-    <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:S19"/>
-    <mergeCell ref="T19:AO19"/>
-    <mergeCell ref="AP19:BJ19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="T20:AO20"/>
-    <mergeCell ref="AP20:BJ20"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="P24:AK24"/>
-    <mergeCell ref="AL24:BF24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="P25:AK25"/>
-    <mergeCell ref="AL25:BF25"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="O44:AB44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="O45:AB45"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:AB53"/>
-    <mergeCell ref="K49:AX49"/>
-    <mergeCell ref="K50:AX50"/>
-    <mergeCell ref="AC44:AX44"/>
-    <mergeCell ref="AC45:AX45"/>
-    <mergeCell ref="AC53:AP53"/>
-    <mergeCell ref="J38:CP38"/>
-    <mergeCell ref="AP32:BJ32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:S33"/>
-    <mergeCell ref="T33:AO33"/>
-    <mergeCell ref="AP33:BJ33"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:S32"/>
-    <mergeCell ref="T32:AO32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="T29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:S30"/>
-    <mergeCell ref="T30:AO30"/>
-    <mergeCell ref="AP30:BJ30"/>
+  <mergeCells count="85">
+    <mergeCell ref="K79:AX79"/>
+    <mergeCell ref="K80:AX80"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="O74:AB74"/>
+    <mergeCell ref="AC74:AP74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="O75:AB75"/>
+    <mergeCell ref="AC75:AP75"/>
     <mergeCell ref="K70:AX70"/>
     <mergeCell ref="K71:AX71"/>
     <mergeCell ref="K54:N54"/>
@@ -8971,14 +8710,73 @@
     <mergeCell ref="K64:N64"/>
     <mergeCell ref="O64:AB64"/>
     <mergeCell ref="AC64:AX64"/>
-    <mergeCell ref="K79:AX79"/>
-    <mergeCell ref="K80:AX80"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="O74:AB74"/>
-    <mergeCell ref="AC74:AP74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="O75:AB75"/>
-    <mergeCell ref="AC75:AP75"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:S32"/>
+    <mergeCell ref="T32:AO32"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="T29:AO29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="T30:AO30"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:S33"/>
+    <mergeCell ref="T33:AO33"/>
+    <mergeCell ref="AP33:BJ33"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:AB53"/>
+    <mergeCell ref="K49:AX49"/>
+    <mergeCell ref="K50:AX50"/>
+    <mergeCell ref="AC44:AX44"/>
+    <mergeCell ref="AC45:AX45"/>
+    <mergeCell ref="AC53:AP53"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="O44:AB44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="O45:AB45"/>
+    <mergeCell ref="J38:CP38"/>
+    <mergeCell ref="AP32:BJ32"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="F31:S31"/>
+    <mergeCell ref="T31:AO31"/>
+    <mergeCell ref="AP31:BJ31"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:S19"/>
+    <mergeCell ref="T19:AO19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="T20:AO20"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="P24:AK24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="P25:AK25"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:AV4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:AV5"/>
+    <mergeCell ref="B6:K10"/>
+    <mergeCell ref="L6:AV10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:S14"/>
+    <mergeCell ref="T14:AO14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="T15:AO15"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="O65:AB65"/>
+    <mergeCell ref="AC65:AX65"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="T16:AO16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:S17"/>
+    <mergeCell ref="T17:AO17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:S18"/>
+    <mergeCell ref="T18:AO18"/>
+    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/docs/pg0003/アプリケーション詳細設計書.xlsx
+++ b/document/docs/pg0003/アプリケーション詳細設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\document\docs\pg0003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90399AE-03ED-44D6-8447-8743AEB03456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BBA43F-220A-44F5-9013-4EEF9F0D4553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>プログラムコード</t>
     <phoneticPr fontId="1"/>
@@ -272,30 +272,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３．戻り値</t>
-    <rPh sb="2" eb="3">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.処理</t>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.ローカル変数</t>
-    <rPh sb="6" eb="8">
-      <t>ヘンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -666,6 +642,20 @@
     <t>種類</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.ローカル変数</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.処理</t>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -897,10 +887,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,7 +1216,7 @@
   <sheetData>
     <row r="3" spans="3:97" ht="32.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1549,7 +1539,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2603,23 +2593,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:CQ4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:CQ5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:CQ6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:CQ7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:CQ8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:CQ9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:CQ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:CQ11"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:CQ15"/>
     <mergeCell ref="B12:E12"/>
@@ -2628,6 +2601,23 @@
     <mergeCell ref="F13:CQ13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:CQ14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:CQ9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:CQ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:CQ11"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:CQ6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:CQ7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:CQ8"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:CQ4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:CQ5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2760,7 +2750,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -2863,7 +2853,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -2894,7 +2884,7 @@
       <c r="AQ5" s="12"/>
       <c r="AR5" s="13"/>
       <c r="AS5" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT5" s="10"/>
       <c r="AU5" s="10"/>
@@ -3168,7 +3158,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
@@ -3254,7 +3244,7 @@
     </row>
     <row r="9" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -3269,7 +3259,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -4025,31 +4015,22 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="G14:W14"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="X12:AN12"/>
-    <mergeCell ref="G13:W13"/>
-    <mergeCell ref="G12:W12"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C5:O5"/>
-    <mergeCell ref="P4:AR4"/>
-    <mergeCell ref="AS4:CS4"/>
-    <mergeCell ref="P5:AR5"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:W23"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:W18"/>
-    <mergeCell ref="X18:AN18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:W19"/>
-    <mergeCell ref="X19:AN19"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:W22"/>
+    <mergeCell ref="AO18:BE18"/>
+    <mergeCell ref="BW23:CM23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:W24"/>
+    <mergeCell ref="X24:AN24"/>
+    <mergeCell ref="AO24:BE24"/>
+    <mergeCell ref="BF24:BV24"/>
+    <mergeCell ref="BW24:CM24"/>
+    <mergeCell ref="X23:AN23"/>
+    <mergeCell ref="AO23:BE23"/>
+    <mergeCell ref="BF23:BV23"/>
+    <mergeCell ref="BW22:CM22"/>
+    <mergeCell ref="X22:AN22"/>
+    <mergeCell ref="AO22:BE22"/>
+    <mergeCell ref="BF22:BV22"/>
+    <mergeCell ref="AO19:BE19"/>
     <mergeCell ref="AO15:BE15"/>
     <mergeCell ref="G15:W15"/>
     <mergeCell ref="X15:AN15"/>
@@ -4066,22 +4047,31 @@
     <mergeCell ref="AO14:BE14"/>
     <mergeCell ref="C7:O7"/>
     <mergeCell ref="P7:AR7"/>
-    <mergeCell ref="AO18:BE18"/>
-    <mergeCell ref="BW23:CM23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:W24"/>
-    <mergeCell ref="X24:AN24"/>
-    <mergeCell ref="AO24:BE24"/>
-    <mergeCell ref="BF24:BV24"/>
-    <mergeCell ref="BW24:CM24"/>
-    <mergeCell ref="X23:AN23"/>
-    <mergeCell ref="AO23:BE23"/>
-    <mergeCell ref="BF23:BV23"/>
-    <mergeCell ref="BW22:CM22"/>
-    <mergeCell ref="X22:AN22"/>
-    <mergeCell ref="AO22:BE22"/>
-    <mergeCell ref="BF22:BV22"/>
-    <mergeCell ref="AO19:BE19"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:W23"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:W18"/>
+    <mergeCell ref="X18:AN18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:W19"/>
+    <mergeCell ref="X19:AN19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:W22"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C5:O5"/>
+    <mergeCell ref="P4:AR4"/>
+    <mergeCell ref="AS4:CS4"/>
+    <mergeCell ref="P5:AR5"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="G14:W14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="X12:AN12"/>
+    <mergeCell ref="G13:W13"/>
+    <mergeCell ref="G12:W12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6179,6 +6169,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:AO5"/>
+    <mergeCell ref="AP5:BD5"/>
+    <mergeCell ref="BE5:BS5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="U4:AO4"/>
+    <mergeCell ref="AP4:BD4"/>
+    <mergeCell ref="BE4:BS4"/>
+    <mergeCell ref="BE10:BS10"/>
+    <mergeCell ref="BE11:BS11"/>
+    <mergeCell ref="BE12:BS12"/>
+    <mergeCell ref="BE13:BS13"/>
+    <mergeCell ref="BE14:BS14"/>
+    <mergeCell ref="BE15:BS15"/>
+    <mergeCell ref="AP13:BD13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:T14"/>
+    <mergeCell ref="U14:AO14"/>
+    <mergeCell ref="AP14:BD14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:T13"/>
+    <mergeCell ref="U13:AO13"/>
+    <mergeCell ref="U10:AO10"/>
+    <mergeCell ref="AP10:BD10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:T11"/>
+    <mergeCell ref="U11:AO11"/>
+    <mergeCell ref="AP11:BD11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:T12"/>
+    <mergeCell ref="U12:AO12"/>
+    <mergeCell ref="AP12:BD12"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:T19"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="AP19:BJ19"/>
+    <mergeCell ref="BK19:BY19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:T15"/>
+    <mergeCell ref="U15:AO15"/>
+    <mergeCell ref="AP15:BD15"/>
+    <mergeCell ref="BZ23:CN23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:T22"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="BK22:BY22"/>
+    <mergeCell ref="BZ22:CN22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:T23"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
+    <mergeCell ref="BK23:BY23"/>
+    <mergeCell ref="BZ25:CN25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:T24"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="BK24:BY24"/>
+    <mergeCell ref="BZ24:CN24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:T25"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="BK25:BY25"/>
+    <mergeCell ref="BZ27:CN27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:T26"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="AP26:BJ26"/>
+    <mergeCell ref="BK26:BY26"/>
+    <mergeCell ref="BZ26:CN26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:T27"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="BK27:BY27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:T29"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="BK29:BY29"/>
+    <mergeCell ref="BZ29:CN29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:T28"/>
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="BK28:BY28"/>
+    <mergeCell ref="BZ28:CN28"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:T31"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="AP31:BJ31"/>
+    <mergeCell ref="BK31:BY31"/>
+    <mergeCell ref="BZ31:CN31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:T30"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="BK30:BY30"/>
+    <mergeCell ref="BZ30:CN30"/>
+    <mergeCell ref="CO23:DC23"/>
+    <mergeCell ref="CO31:DC31"/>
+    <mergeCell ref="CO25:DC25"/>
+    <mergeCell ref="CO26:DC26"/>
+    <mergeCell ref="CO27:DC27"/>
+    <mergeCell ref="CO28:DC28"/>
+    <mergeCell ref="CO29:DC29"/>
+    <mergeCell ref="CO30:DC30"/>
+    <mergeCell ref="CO24:DC24"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:T6"/>
     <mergeCell ref="U6:AO6"/>
@@ -6203,118 +6305,6 @@
     <mergeCell ref="BZ19:CN19"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:T10"/>
-    <mergeCell ref="CO23:DC23"/>
-    <mergeCell ref="CO31:DC31"/>
-    <mergeCell ref="CO25:DC25"/>
-    <mergeCell ref="CO26:DC26"/>
-    <mergeCell ref="CO27:DC27"/>
-    <mergeCell ref="CO28:DC28"/>
-    <mergeCell ref="CO29:DC29"/>
-    <mergeCell ref="CO30:DC30"/>
-    <mergeCell ref="CO24:DC24"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:T31"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="BK31:BY31"/>
-    <mergeCell ref="BZ31:CN31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:T30"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="AP30:BJ30"/>
-    <mergeCell ref="BK30:BY30"/>
-    <mergeCell ref="BZ30:CN30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:T29"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="BK29:BY29"/>
-    <mergeCell ref="BZ29:CN29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:T28"/>
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="BK28:BY28"/>
-    <mergeCell ref="BZ28:CN28"/>
-    <mergeCell ref="BZ27:CN27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:T26"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="BK26:BY26"/>
-    <mergeCell ref="BZ26:CN26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:T27"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="BK27:BY27"/>
-    <mergeCell ref="BZ25:CN25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:T24"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="AP24:BJ24"/>
-    <mergeCell ref="BK24:BY24"/>
-    <mergeCell ref="BZ24:CN24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:T25"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="BK25:BY25"/>
-    <mergeCell ref="BZ23:CN23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:T22"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="AP22:BJ22"/>
-    <mergeCell ref="BK22:BY22"/>
-    <mergeCell ref="BZ22:CN22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:T23"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="AP23:BJ23"/>
-    <mergeCell ref="BK23:BY23"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:T19"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="AP19:BJ19"/>
-    <mergeCell ref="BK19:BY19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:T15"/>
-    <mergeCell ref="U15:AO15"/>
-    <mergeCell ref="AP15:BD15"/>
-    <mergeCell ref="BE10:BS10"/>
-    <mergeCell ref="BE11:BS11"/>
-    <mergeCell ref="BE12:BS12"/>
-    <mergeCell ref="BE13:BS13"/>
-    <mergeCell ref="BE14:BS14"/>
-    <mergeCell ref="BE15:BS15"/>
-    <mergeCell ref="AP13:BD13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:T14"/>
-    <mergeCell ref="U14:AO14"/>
-    <mergeCell ref="AP14:BD14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:T13"/>
-    <mergeCell ref="U13:AO13"/>
-    <mergeCell ref="U10:AO10"/>
-    <mergeCell ref="AP10:BD10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:T11"/>
-    <mergeCell ref="U11:AO11"/>
-    <mergeCell ref="AP11:BD11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:T12"/>
-    <mergeCell ref="U12:AO12"/>
-    <mergeCell ref="AP12:BD12"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:AO5"/>
-    <mergeCell ref="AP5:BD5"/>
-    <mergeCell ref="BE5:BS5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="U4:AO4"/>
-    <mergeCell ref="AP4:BD4"/>
-    <mergeCell ref="BE4:BS4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6323,10 +6313,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCC1237-16DD-47FC-9C59-2E49C2F01E8E}">
-  <dimension ref="B2:CP83"/>
+  <dimension ref="B2:CP78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BJ1" sqref="BJ1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6350,7 +6340,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -6403,7 +6393,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -6455,45 +6445,45 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="14"/>
-      <c r="AR6" s="14"/>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="14"/>
-      <c r="AU6" s="14"/>
-      <c r="AV6" s="14"/>
+      <c r="L6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10"/>
@@ -6506,43 +6496,43 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
     </row>
     <row r="8" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10"/>
@@ -6555,43 +6545,43 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="10"/>
@@ -6604,43 +6594,43 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10"/>
@@ -6653,47 +6643,47 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
     </row>
     <row r="12" spans="2:48" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:48" x14ac:dyDescent="0.55000000000000004">
@@ -6998,17 +6988,19 @@
     </row>
     <row r="22" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:62" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="10" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -7018,13 +7010,13 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
+      <c r="T24" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
@@ -7042,13 +7034,44 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10"/>
+      <c r="BG24" s="10"/>
+      <c r="BH24" s="10"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="10"/>
     </row>
     <row r="25" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="10"/>
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -7062,7 +7085,9 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
+      <c r="T25" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
@@ -7080,292 +7105,242 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="10"/>
+      <c r="BF25" s="10"/>
+      <c r="BG25" s="10"/>
+      <c r="BH25" s="10"/>
+      <c r="BI25" s="10"/>
+      <c r="BJ25" s="10"/>
+    </row>
+    <row r="26" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="10"/>
+      <c r="BD26" s="10"/>
+      <c r="BE26" s="10"/>
+      <c r="BF26" s="10"/>
+      <c r="BG26" s="10"/>
+      <c r="BH26" s="10"/>
+      <c r="BI26" s="10"/>
+      <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
-      <c r="BF29" s="10"/>
-      <c r="BG29" s="10"/>
-      <c r="BH29" s="10"/>
-      <c r="BI29" s="10"/>
-      <c r="BJ29" s="10"/>
-    </row>
-    <row r="30" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="10">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10" t="s">
+      <c r="B27" s="10">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
-      <c r="AK30" s="10"/>
-      <c r="AL30" s="10"/>
-      <c r="AM30" s="10"/>
-      <c r="AN30" s="10"/>
-      <c r="AO30" s="10"/>
-      <c r="AP30" s="10"/>
-      <c r="AQ30" s="10"/>
-      <c r="AR30" s="10"/>
-      <c r="AS30" s="10"/>
-      <c r="AT30" s="10"/>
-      <c r="AU30" s="10"/>
-      <c r="AV30" s="10"/>
-      <c r="AW30" s="10"/>
-      <c r="AX30" s="10"/>
-      <c r="AY30" s="10"/>
-      <c r="AZ30" s="10"/>
-      <c r="BA30" s="10"/>
-      <c r="BB30" s="10"/>
-      <c r="BC30" s="10"/>
-      <c r="BD30" s="10"/>
-      <c r="BE30" s="10"/>
-      <c r="BF30" s="10"/>
-      <c r="BG30" s="10"/>
-      <c r="BH30" s="10"/>
-      <c r="BI30" s="10"/>
-      <c r="BJ30" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="10"/>
+      <c r="BA27" s="10"/>
+      <c r="BB27" s="10"/>
+      <c r="BC27" s="10"/>
+      <c r="BD27" s="10"/>
+      <c r="BE27" s="10"/>
+      <c r="BF27" s="10"/>
+      <c r="BG27" s="10"/>
+      <c r="BH27" s="10"/>
+      <c r="BI27" s="10"/>
+      <c r="BJ27" s="10"/>
+    </row>
+    <row r="28" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="10"/>
+      <c r="BA28" s="10"/>
+      <c r="BB28" s="10"/>
+      <c r="BC28" s="10"/>
+      <c r="BD28" s="10"/>
+      <c r="BE28" s="10"/>
+      <c r="BF28" s="10"/>
+      <c r="BG28" s="10"/>
+      <c r="BH28" s="10"/>
+      <c r="BI28" s="10"/>
+      <c r="BJ28" s="10"/>
     </row>
     <row r="31" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="10">
-        <v>2</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-      <c r="AK31" s="10"/>
-      <c r="AL31" s="10"/>
-      <c r="AM31" s="10"/>
-      <c r="AN31" s="10"/>
-      <c r="AO31" s="10"/>
-      <c r="AP31" s="10"/>
-      <c r="AQ31" s="10"/>
-      <c r="AR31" s="10"/>
-      <c r="AS31" s="10"/>
-      <c r="AT31" s="10"/>
-      <c r="AU31" s="10"/>
-      <c r="AV31" s="10"/>
-      <c r="AW31" s="10"/>
-      <c r="AX31" s="10"/>
-      <c r="AY31" s="10"/>
-      <c r="AZ31" s="10"/>
-      <c r="BA31" s="10"/>
-      <c r="BB31" s="10"/>
-      <c r="BC31" s="10"/>
-      <c r="BD31" s="10"/>
-      <c r="BE31" s="10"/>
-      <c r="BF31" s="10"/>
-      <c r="BG31" s="10"/>
-      <c r="BH31" s="10"/>
-      <c r="BI31" s="10"/>
-      <c r="BJ31" s="10"/>
-    </row>
-    <row r="32" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="10">
-        <v>3</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="10"/>
-      <c r="AI32" s="10"/>
-      <c r="AJ32" s="10"/>
-      <c r="AK32" s="10"/>
-      <c r="AL32" s="10"/>
-      <c r="AM32" s="10"/>
-      <c r="AN32" s="10"/>
-      <c r="AO32" s="10"/>
-      <c r="AP32" s="10"/>
-      <c r="AQ32" s="10"/>
-      <c r="AR32" s="10"/>
-      <c r="AS32" s="10"/>
-      <c r="AT32" s="10"/>
-      <c r="AU32" s="10"/>
-      <c r="AV32" s="10"/>
-      <c r="AW32" s="10"/>
-      <c r="AX32" s="10"/>
-      <c r="AY32" s="10"/>
-      <c r="AZ32" s="10"/>
-      <c r="BA32" s="10"/>
-      <c r="BB32" s="10"/>
-      <c r="BC32" s="10"/>
-      <c r="BD32" s="10"/>
-      <c r="BE32" s="10"/>
-      <c r="BF32" s="10"/>
-      <c r="BG32" s="10"/>
-      <c r="BH32" s="10"/>
-      <c r="BI32" s="10"/>
-      <c r="BJ32" s="10"/>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="33" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -7373,272 +7348,329 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="10"/>
-      <c r="AU33" s="10"/>
-      <c r="AV33" s="10"/>
-      <c r="AW33" s="10"/>
-      <c r="AX33" s="10"/>
-      <c r="AY33" s="10"/>
-      <c r="AZ33" s="10"/>
-      <c r="BA33" s="10"/>
-      <c r="BB33" s="10"/>
-      <c r="BC33" s="10"/>
-      <c r="BD33" s="10"/>
-      <c r="BE33" s="10"/>
-      <c r="BF33" s="10"/>
-      <c r="BG33" s="10"/>
-      <c r="BH33" s="10"/>
-      <c r="BI33" s="10"/>
-      <c r="BJ33" s="10"/>
+      <c r="J33" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="14"/>
+      <c r="BA33" s="14"/>
+      <c r="BB33" s="14"/>
+      <c r="BC33" s="14"/>
+      <c r="BD33" s="14"/>
+      <c r="BE33" s="14"/>
+      <c r="BF33" s="14"/>
+      <c r="BG33" s="14"/>
+      <c r="BH33" s="14"/>
+      <c r="BI33" s="14"/>
+      <c r="BJ33" s="14"/>
+      <c r="BK33" s="14"/>
+      <c r="BL33" s="14"/>
+      <c r="BM33" s="14"/>
+      <c r="BN33" s="14"/>
+      <c r="BO33" s="14"/>
+      <c r="BP33" s="14"/>
+      <c r="BQ33" s="14"/>
+      <c r="BR33" s="14"/>
+      <c r="BS33" s="14"/>
+      <c r="BT33" s="14"/>
+      <c r="BU33" s="14"/>
+      <c r="BV33" s="14"/>
+      <c r="BW33" s="14"/>
+      <c r="BX33" s="14"/>
+      <c r="BY33" s="14"/>
+      <c r="BZ33" s="14"/>
+      <c r="CA33" s="14"/>
+      <c r="CB33" s="14"/>
+      <c r="CC33" s="14"/>
+      <c r="CD33" s="14"/>
+      <c r="CE33" s="14"/>
+      <c r="CF33" s="14"/>
+      <c r="CG33" s="14"/>
+      <c r="CH33" s="14"/>
+      <c r="CI33" s="14"/>
+      <c r="CJ33" s="14"/>
+      <c r="CK33" s="14"/>
+      <c r="CL33" s="14"/>
+      <c r="CM33" s="14"/>
+      <c r="CN33" s="14"/>
+      <c r="CO33" s="14"/>
+      <c r="CP33" s="14"/>
+    </row>
+    <row r="34" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="3"/>
+      <c r="BO34" s="3"/>
+      <c r="BP34" s="3"/>
+      <c r="BQ34" s="3"/>
+      <c r="BR34" s="3"/>
+      <c r="BS34" s="3"/>
+      <c r="BT34" s="3"/>
+      <c r="BU34" s="3"/>
+      <c r="BV34" s="3"/>
+      <c r="BW34" s="3"/>
+      <c r="BX34" s="3"/>
+      <c r="BY34" s="3"/>
+      <c r="BZ34" s="3"/>
+      <c r="CA34" s="3"/>
+      <c r="CB34" s="3"/>
+      <c r="CC34" s="3"/>
+      <c r="CD34" s="3"/>
+      <c r="CE34" s="3"/>
+      <c r="CF34" s="3"/>
+      <c r="CG34" s="3"/>
+      <c r="CH34" s="3"/>
+      <c r="CI34" s="3"/>
+      <c r="CJ34" s="3"/>
+      <c r="CK34" s="3"/>
+      <c r="CL34" s="3"/>
+      <c r="CM34" s="3"/>
+      <c r="CN34" s="3"/>
+      <c r="CO34" s="3"/>
+      <c r="CP34" s="4"/>
+    </row>
+    <row r="35" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="1"/>
+      <c r="K35" t="s">
+        <v>47</v>
+      </c>
+      <c r="CP35" s="5"/>
     </row>
     <row r="36" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="1"/>
+      <c r="CP36" s="5"/>
+    </row>
+    <row r="37" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="1"/>
+      <c r="K37" t="s">
+        <v>44</v>
+      </c>
+      <c r="CP37" s="5"/>
     </row>
     <row r="38" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="15"/>
-      <c r="AG38" s="15"/>
-      <c r="AH38" s="15"/>
-      <c r="AI38" s="15"/>
-      <c r="AJ38" s="15"/>
-      <c r="AK38" s="15"/>
-      <c r="AL38" s="15"/>
-      <c r="AM38" s="15"/>
-      <c r="AN38" s="15"/>
-      <c r="AO38" s="15"/>
-      <c r="AP38" s="15"/>
-      <c r="AQ38" s="15"/>
-      <c r="AR38" s="15"/>
-      <c r="AS38" s="15"/>
-      <c r="AT38" s="15"/>
-      <c r="AU38" s="15"/>
-      <c r="AV38" s="15"/>
-      <c r="AW38" s="15"/>
-      <c r="AX38" s="15"/>
-      <c r="AY38" s="15"/>
-      <c r="AZ38" s="15"/>
-      <c r="BA38" s="15"/>
-      <c r="BB38" s="15"/>
-      <c r="BC38" s="15"/>
-      <c r="BD38" s="15"/>
-      <c r="BE38" s="15"/>
-      <c r="BF38" s="15"/>
-      <c r="BG38" s="15"/>
-      <c r="BH38" s="15"/>
-      <c r="BI38" s="15"/>
-      <c r="BJ38" s="15"/>
-      <c r="BK38" s="15"/>
-      <c r="BL38" s="15"/>
-      <c r="BM38" s="15"/>
-      <c r="BN38" s="15"/>
-      <c r="BO38" s="15"/>
-      <c r="BP38" s="15"/>
-      <c r="BQ38" s="15"/>
-      <c r="BR38" s="15"/>
-      <c r="BS38" s="15"/>
-      <c r="BT38" s="15"/>
-      <c r="BU38" s="15"/>
-      <c r="BV38" s="15"/>
-      <c r="BW38" s="15"/>
-      <c r="BX38" s="15"/>
-      <c r="BY38" s="15"/>
-      <c r="BZ38" s="15"/>
-      <c r="CA38" s="15"/>
-      <c r="CB38" s="15"/>
-      <c r="CC38" s="15"/>
-      <c r="CD38" s="15"/>
-      <c r="CE38" s="15"/>
-      <c r="CF38" s="15"/>
-      <c r="CG38" s="15"/>
-      <c r="CH38" s="15"/>
-      <c r="CI38" s="15"/>
-      <c r="CJ38" s="15"/>
-      <c r="CK38" s="15"/>
-      <c r="CL38" s="15"/>
-      <c r="CM38" s="15"/>
-      <c r="CN38" s="15"/>
-      <c r="CO38" s="15"/>
-      <c r="CP38" s="15"/>
+      <c r="B38" s="1"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="1"/>
+      <c r="CP38" s="5"/>
     </row>
     <row r="39" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="3" t="s">
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="3"/>
-      <c r="AM39" s="3"/>
-      <c r="AN39" s="3"/>
-      <c r="AO39" s="3"/>
-      <c r="AP39" s="3"/>
-      <c r="AQ39" s="3"/>
-      <c r="AR39" s="3"/>
-      <c r="AS39" s="3"/>
-      <c r="AT39" s="3"/>
-      <c r="AU39" s="3"/>
-      <c r="AV39" s="3"/>
-      <c r="AW39" s="3"/>
-      <c r="AX39" s="3"/>
-      <c r="AY39" s="3"/>
-      <c r="AZ39" s="3"/>
-      <c r="BA39" s="3"/>
-      <c r="BB39" s="3"/>
-      <c r="BC39" s="3"/>
-      <c r="BD39" s="3"/>
-      <c r="BE39" s="3"/>
-      <c r="BF39" s="3"/>
-      <c r="BG39" s="3"/>
-      <c r="BH39" s="3"/>
-      <c r="BI39" s="3"/>
-      <c r="BJ39" s="3"/>
-      <c r="BK39" s="3"/>
-      <c r="BL39" s="3"/>
-      <c r="BM39" s="3"/>
-      <c r="BN39" s="3"/>
-      <c r="BO39" s="3"/>
-      <c r="BP39" s="3"/>
-      <c r="BQ39" s="3"/>
-      <c r="BR39" s="3"/>
-      <c r="BS39" s="3"/>
-      <c r="BT39" s="3"/>
-      <c r="BU39" s="3"/>
-      <c r="BV39" s="3"/>
-      <c r="BW39" s="3"/>
-      <c r="BX39" s="3"/>
-      <c r="BY39" s="3"/>
-      <c r="BZ39" s="3"/>
-      <c r="CA39" s="3"/>
-      <c r="CB39" s="3"/>
-      <c r="CC39" s="3"/>
-      <c r="CD39" s="3"/>
-      <c r="CE39" s="3"/>
-      <c r="CF39" s="3"/>
-      <c r="CG39" s="3"/>
-      <c r="CH39" s="3"/>
-      <c r="CI39" s="3"/>
-      <c r="CJ39" s="3"/>
-      <c r="CK39" s="3"/>
-      <c r="CL39" s="3"/>
-      <c r="CM39" s="3"/>
-      <c r="CN39" s="3"/>
-      <c r="CO39" s="3"/>
-      <c r="CP39" s="4"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="10"/>
+      <c r="AQ39" s="10"/>
+      <c r="AR39" s="10"/>
+      <c r="AS39" s="10"/>
+      <c r="AT39" s="10"/>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="10"/>
+      <c r="AW39" s="10"/>
+      <c r="AX39" s="10"/>
+      <c r="CP39" s="5"/>
     </row>
     <row r="40" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="I40" s="5"/>
       <c r="J40" s="1"/>
-      <c r="K40" t="s">
-        <v>50</v>
-      </c>
+      <c r="K40" s="10">
+        <v>1</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="10"/>
+      <c r="AO40" s="10"/>
+      <c r="AP40" s="10"/>
+      <c r="AQ40" s="10"/>
+      <c r="AR40" s="10"/>
+      <c r="AS40" s="10"/>
+      <c r="AT40" s="10"/>
+      <c r="AU40" s="10"/>
+      <c r="AV40" s="10"/>
+      <c r="AW40" s="10"/>
+      <c r="AX40" s="10"/>
       <c r="CP40" s="5"/>
     </row>
     <row r="41" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7649,12 +7681,12 @@
     </row>
     <row r="42" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="1"/>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="CP42" s="5"/>
     </row>
@@ -7669,14 +7701,12 @@
       <c r="I44" s="5"/>
       <c r="J44" s="1"/>
       <c r="K44" s="10" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -7690,9 +7720,7 @@
       <c r="Z44" s="10"/>
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
-      <c r="AC44" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
       <c r="AF44" s="10"/>
@@ -7720,15 +7748,13 @@
       <c r="B45" s="1"/>
       <c r="I45" s="5"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="10">
-        <v>1</v>
+      <c r="K45" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
@@ -7742,9 +7768,7 @@
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
-      <c r="AC45" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="10"/>
@@ -7775,13 +7799,11 @@
       <c r="CP46" s="5"/>
     </row>
     <row r="47" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="I47" s="5"/>
       <c r="J47" s="1"/>
       <c r="K47" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="CP47" s="5"/>
     </row>
@@ -7789,19 +7811,59 @@
       <c r="B48" s="1"/>
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
+      <c r="K48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="10"/>
+      <c r="AO48" s="10"/>
+      <c r="AP48" s="10"/>
       <c r="CP48" s="5"/>
     </row>
     <row r="49" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1"/>
       <c r="I49" s="5"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="10" t="s">
-        <v>51</v>
+      <c r="K49" s="10">
+        <v>1</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
+      <c r="O49" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -7829,77 +7891,27 @@
       <c r="AN49" s="10"/>
       <c r="AO49" s="10"/>
       <c r="AP49" s="10"/>
-      <c r="AQ49" s="10"/>
-      <c r="AR49" s="10"/>
-      <c r="AS49" s="10"/>
-      <c r="AT49" s="10"/>
-      <c r="AU49" s="10"/>
-      <c r="AV49" s="10"/>
-      <c r="AW49" s="10"/>
-      <c r="AX49" s="10"/>
       <c r="CP49" s="5"/>
     </row>
     <row r="50" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1"/>
       <c r="I50" s="5"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="10"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="10"/>
-      <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
-      <c r="AM50" s="10"/>
-      <c r="AN50" s="10"/>
-      <c r="AO50" s="10"/>
-      <c r="AP50" s="10"/>
-      <c r="AQ50" s="10"/>
-      <c r="AR50" s="10"/>
-      <c r="AS50" s="10"/>
-      <c r="AT50" s="10"/>
-      <c r="AU50" s="10"/>
-      <c r="AV50" s="10"/>
-      <c r="AW50" s="10"/>
-      <c r="AX50" s="10"/>
       <c r="CP50" s="5"/>
     </row>
     <row r="51" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1"/>
       <c r="I51" s="5"/>
       <c r="J51" s="1"/>
+      <c r="K51" t="s">
+        <v>51</v>
+      </c>
       <c r="CP51" s="5"/>
     </row>
     <row r="52" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1"/>
       <c r="I52" s="5"/>
       <c r="J52" s="1"/>
-      <c r="K52" t="s">
-        <v>52</v>
-      </c>
       <c r="CP52" s="5"/>
     </row>
     <row r="53" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7907,14 +7919,12 @@
       <c r="I53" s="5"/>
       <c r="J53" s="1"/>
       <c r="K53" s="10" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
-      <c r="O53" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
@@ -7928,9 +7938,7 @@
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
-      <c r="AC53" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
       <c r="AE53" s="10"/>
       <c r="AF53" s="10"/>
@@ -7944,21 +7952,27 @@
       <c r="AN53" s="10"/>
       <c r="AO53" s="10"/>
       <c r="AP53" s="10"/>
+      <c r="AQ53" s="10"/>
+      <c r="AR53" s="10"/>
+      <c r="AS53" s="10"/>
+      <c r="AT53" s="10"/>
+      <c r="AU53" s="10"/>
+      <c r="AV53" s="10"/>
+      <c r="AW53" s="10"/>
+      <c r="AX53" s="10"/>
       <c r="CP53" s="5"/>
     </row>
     <row r="54" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1"/>
       <c r="I54" s="5"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="10">
-        <v>1</v>
+      <c r="K54" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
-      <c r="O54" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="O54" s="10"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
@@ -7986,6 +8000,14 @@
       <c r="AN54" s="10"/>
       <c r="AO54" s="10"/>
       <c r="AP54" s="10"/>
+      <c r="AQ54" s="10"/>
+      <c r="AR54" s="10"/>
+      <c r="AS54" s="10"/>
+      <c r="AT54" s="10"/>
+      <c r="AU54" s="10"/>
+      <c r="AV54" s="10"/>
+      <c r="AW54" s="10"/>
+      <c r="AX54" s="10"/>
       <c r="CP54" s="5"/>
     </row>
     <row r="55" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7998,63 +8020,23 @@
       <c r="B56" s="1"/>
       <c r="I56" s="5"/>
       <c r="J56" s="1"/>
-      <c r="K56" t="s">
-        <v>54</v>
-      </c>
       <c r="CP56" s="5"/>
     </row>
     <row r="57" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I57" s="5"/>
       <c r="J57" s="1"/>
+      <c r="K57" t="s">
+        <v>75</v>
+      </c>
       <c r="CP57" s="5"/>
     </row>
     <row r="58" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1"/>
       <c r="I58" s="5"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="10"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="10"/>
-      <c r="AK58" s="10"/>
-      <c r="AL58" s="10"/>
-      <c r="AM58" s="10"/>
-      <c r="AN58" s="10"/>
-      <c r="AO58" s="10"/>
-      <c r="AP58" s="10"/>
-      <c r="AQ58" s="10"/>
-      <c r="AR58" s="10"/>
-      <c r="AS58" s="10"/>
-      <c r="AT58" s="10"/>
-      <c r="AU58" s="10"/>
-      <c r="AV58" s="10"/>
-      <c r="AW58" s="10"/>
-      <c r="AX58" s="10"/>
       <c r="CP58" s="5"/>
     </row>
     <row r="59" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8062,12 +8044,14 @@
       <c r="I59" s="5"/>
       <c r="J59" s="1"/>
       <c r="K59" s="10" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
+      <c r="O59" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
@@ -8081,7 +8065,9 @@
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
+      <c r="AC59" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="AD59" s="10"/>
       <c r="AE59" s="10"/>
       <c r="AF59" s="10"/>
@@ -8109,6 +8095,52 @@
       <c r="B60" s="1"/>
       <c r="I60" s="5"/>
       <c r="J60" s="1"/>
+      <c r="K60" s="10">
+        <v>1</v>
+      </c>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="10"/>
+      <c r="AO60" s="10"/>
+      <c r="AP60" s="10"/>
+      <c r="AQ60" s="10"/>
+      <c r="AR60" s="10"/>
+      <c r="AS60" s="10"/>
+      <c r="AT60" s="10"/>
+      <c r="AU60" s="10"/>
+      <c r="AV60" s="10"/>
+      <c r="AW60" s="10"/>
+      <c r="AX60" s="10"/>
       <c r="CP60" s="5"/>
     </row>
     <row r="61" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8118,87 +8150,39 @@
       <c r="CP61" s="5"/>
     </row>
     <row r="62" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B62" s="1"/>
       <c r="I62" s="5"/>
       <c r="J62" s="1"/>
-      <c r="K62" t="s">
-        <v>78</v>
-      </c>
       <c r="CP62" s="5"/>
     </row>
     <row r="63" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I63" s="5"/>
       <c r="J63" s="1"/>
+      <c r="K63" t="s">
+        <v>73</v>
+      </c>
       <c r="CP63" s="5"/>
     </row>
     <row r="64" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1"/>
       <c r="I64" s="5"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
-      <c r="AB64" s="10"/>
-      <c r="AC64" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD64" s="10"/>
-      <c r="AE64" s="10"/>
-      <c r="AF64" s="10"/>
-      <c r="AG64" s="10"/>
-      <c r="AH64" s="10"/>
-      <c r="AI64" s="10"/>
-      <c r="AJ64" s="10"/>
-      <c r="AK64" s="10"/>
-      <c r="AL64" s="10"/>
-      <c r="AM64" s="10"/>
-      <c r="AN64" s="10"/>
-      <c r="AO64" s="10"/>
-      <c r="AP64" s="10"/>
-      <c r="AQ64" s="10"/>
-      <c r="AR64" s="10"/>
-      <c r="AS64" s="10"/>
-      <c r="AT64" s="10"/>
-      <c r="AU64" s="10"/>
-      <c r="AV64" s="10"/>
-      <c r="AW64" s="10"/>
-      <c r="AX64" s="10"/>
       <c r="CP64" s="5"/>
     </row>
     <row r="65" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1"/>
       <c r="I65" s="5"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="10">
-        <v>1</v>
+      <c r="K65" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
-      <c r="O65" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
@@ -8212,9 +8196,7 @@
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
-      <c r="AC65" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="AC65" s="10"/>
       <c r="AD65" s="10"/>
       <c r="AE65" s="10"/>
       <c r="AF65" s="10"/>
@@ -8242,6 +8224,48 @@
       <c r="B66" s="1"/>
       <c r="I66" s="5"/>
       <c r="J66" s="1"/>
+      <c r="K66" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
+      <c r="AG66" s="10"/>
+      <c r="AH66" s="10"/>
+      <c r="AI66" s="10"/>
+      <c r="AJ66" s="10"/>
+      <c r="AK66" s="10"/>
+      <c r="AL66" s="10"/>
+      <c r="AM66" s="10"/>
+      <c r="AN66" s="10"/>
+      <c r="AO66" s="10"/>
+      <c r="AP66" s="10"/>
+      <c r="AQ66" s="10"/>
+      <c r="AR66" s="10"/>
+      <c r="AS66" s="10"/>
+      <c r="AT66" s="10"/>
+      <c r="AU66" s="10"/>
+      <c r="AV66" s="10"/>
+      <c r="AW66" s="10"/>
+      <c r="AX66" s="10"/>
       <c r="CP66" s="5"/>
     </row>
     <row r="67" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8251,13 +8275,11 @@
       <c r="CP67" s="5"/>
     </row>
     <row r="68" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B68" s="1"/>
       <c r="I68" s="5"/>
       <c r="J68" s="1"/>
       <c r="K68" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="CP68" s="5"/>
     </row>
@@ -8265,19 +8287,59 @@
       <c r="B69" s="1"/>
       <c r="I69" s="5"/>
       <c r="J69" s="1"/>
+      <c r="K69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+      <c r="AG69" s="10"/>
+      <c r="AH69" s="10"/>
+      <c r="AI69" s="10"/>
+      <c r="AJ69" s="10"/>
+      <c r="AK69" s="10"/>
+      <c r="AL69" s="10"/>
+      <c r="AM69" s="10"/>
+      <c r="AN69" s="10"/>
+      <c r="AO69" s="10"/>
+      <c r="AP69" s="10"/>
       <c r="CP69" s="5"/>
     </row>
     <row r="70" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1"/>
       <c r="I70" s="5"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="10" t="s">
-        <v>51</v>
+      <c r="K70" s="10">
+        <v>1</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
+      <c r="O70" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
@@ -8305,77 +8367,27 @@
       <c r="AN70" s="10"/>
       <c r="AO70" s="10"/>
       <c r="AP70" s="10"/>
-      <c r="AQ70" s="10"/>
-      <c r="AR70" s="10"/>
-      <c r="AS70" s="10"/>
-      <c r="AT70" s="10"/>
-      <c r="AU70" s="10"/>
-      <c r="AV70" s="10"/>
-      <c r="AW70" s="10"/>
-      <c r="AX70" s="10"/>
       <c r="CP70" s="5"/>
     </row>
     <row r="71" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1"/>
       <c r="I71" s="5"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="10"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10"/>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="10"/>
-      <c r="AB71" s="10"/>
-      <c r="AC71" s="10"/>
-      <c r="AD71" s="10"/>
-      <c r="AE71" s="10"/>
-      <c r="AF71" s="10"/>
-      <c r="AG71" s="10"/>
-      <c r="AH71" s="10"/>
-      <c r="AI71" s="10"/>
-      <c r="AJ71" s="10"/>
-      <c r="AK71" s="10"/>
-      <c r="AL71" s="10"/>
-      <c r="AM71" s="10"/>
-      <c r="AN71" s="10"/>
-      <c r="AO71" s="10"/>
-      <c r="AP71" s="10"/>
-      <c r="AQ71" s="10"/>
-      <c r="AR71" s="10"/>
-      <c r="AS71" s="10"/>
-      <c r="AT71" s="10"/>
-      <c r="AU71" s="10"/>
-      <c r="AV71" s="10"/>
-      <c r="AW71" s="10"/>
-      <c r="AX71" s="10"/>
       <c r="CP71" s="5"/>
     </row>
     <row r="72" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1"/>
       <c r="I72" s="5"/>
       <c r="J72" s="1"/>
+      <c r="K72" t="s">
+        <v>51</v>
+      </c>
       <c r="CP72" s="5"/>
     </row>
     <row r="73" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1"/>
       <c r="I73" s="5"/>
       <c r="J73" s="1"/>
-      <c r="K73" t="s">
-        <v>23</v>
-      </c>
       <c r="CP73" s="5"/>
     </row>
     <row r="74" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8383,14 +8395,12 @@
       <c r="I74" s="5"/>
       <c r="J74" s="1"/>
       <c r="K74" s="10" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
-      <c r="O74" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="O74" s="10"/>
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
@@ -8404,9 +8414,7 @@
       <c r="Z74" s="10"/>
       <c r="AA74" s="10"/>
       <c r="AB74" s="10"/>
-      <c r="AC74" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="AC74" s="10"/>
       <c r="AD74" s="10"/>
       <c r="AE74" s="10"/>
       <c r="AF74" s="10"/>
@@ -8420,21 +8428,25 @@
       <c r="AN74" s="10"/>
       <c r="AO74" s="10"/>
       <c r="AP74" s="10"/>
+      <c r="AQ74" s="10"/>
+      <c r="AR74" s="10"/>
+      <c r="AS74" s="10"/>
+      <c r="AT74" s="10"/>
+      <c r="AU74" s="10"/>
+      <c r="AV74" s="10"/>
+      <c r="AW74" s="10"/>
+      <c r="AX74" s="10"/>
       <c r="CP74" s="5"/>
     </row>
     <row r="75" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1"/>
       <c r="I75" s="5"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="10">
-        <v>1</v>
-      </c>
+      <c r="K75" s="10"/>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
-      <c r="O75" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="O75" s="10"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
@@ -8462,6 +8474,14 @@
       <c r="AN75" s="10"/>
       <c r="AO75" s="10"/>
       <c r="AP75" s="10"/>
+      <c r="AQ75" s="10"/>
+      <c r="AR75" s="10"/>
+      <c r="AS75" s="10"/>
+      <c r="AT75" s="10"/>
+      <c r="AU75" s="10"/>
+      <c r="AV75" s="10"/>
+      <c r="AW75" s="10"/>
+      <c r="AX75" s="10"/>
       <c r="CP75" s="5"/>
     </row>
     <row r="76" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -8474,284 +8494,119 @@
       <c r="B77" s="1"/>
       <c r="I77" s="5"/>
       <c r="J77" s="1"/>
-      <c r="K77" t="s">
-        <v>54</v>
-      </c>
       <c r="CP77" s="5"/>
     </row>
     <row r="78" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="1"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="1"/>
-      <c r="CP78" s="5"/>
-    </row>
-    <row r="79" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="1"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
-      <c r="W79" s="10"/>
-      <c r="X79" s="10"/>
-      <c r="Y79" s="10"/>
-      <c r="Z79" s="10"/>
-      <c r="AA79" s="10"/>
-      <c r="AB79" s="10"/>
-      <c r="AC79" s="10"/>
-      <c r="AD79" s="10"/>
-      <c r="AE79" s="10"/>
-      <c r="AF79" s="10"/>
-      <c r="AG79" s="10"/>
-      <c r="AH79" s="10"/>
-      <c r="AI79" s="10"/>
-      <c r="AJ79" s="10"/>
-      <c r="AK79" s="10"/>
-      <c r="AL79" s="10"/>
-      <c r="AM79" s="10"/>
-      <c r="AN79" s="10"/>
-      <c r="AO79" s="10"/>
-      <c r="AP79" s="10"/>
-      <c r="AQ79" s="10"/>
-      <c r="AR79" s="10"/>
-      <c r="AS79" s="10"/>
-      <c r="AT79" s="10"/>
-      <c r="AU79" s="10"/>
-      <c r="AV79" s="10"/>
-      <c r="AW79" s="10"/>
-      <c r="AX79" s="10"/>
-      <c r="CP79" s="5"/>
-    </row>
-    <row r="80" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="1"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="10"/>
-      <c r="X80" s="10"/>
-      <c r="Y80" s="10"/>
-      <c r="Z80" s="10"/>
-      <c r="AA80" s="10"/>
-      <c r="AB80" s="10"/>
-      <c r="AC80" s="10"/>
-      <c r="AD80" s="10"/>
-      <c r="AE80" s="10"/>
-      <c r="AF80" s="10"/>
-      <c r="AG80" s="10"/>
-      <c r="AH80" s="10"/>
-      <c r="AI80" s="10"/>
-      <c r="AJ80" s="10"/>
-      <c r="AK80" s="10"/>
-      <c r="AL80" s="10"/>
-      <c r="AM80" s="10"/>
-      <c r="AN80" s="10"/>
-      <c r="AO80" s="10"/>
-      <c r="AP80" s="10"/>
-      <c r="AQ80" s="10"/>
-      <c r="AR80" s="10"/>
-      <c r="AS80" s="10"/>
-      <c r="AT80" s="10"/>
-      <c r="AU80" s="10"/>
-      <c r="AV80" s="10"/>
-      <c r="AW80" s="10"/>
-      <c r="AX80" s="10"/>
-      <c r="CP80" s="5"/>
-    </row>
-    <row r="81" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="1"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="1"/>
-      <c r="CP81" s="5"/>
-    </row>
-    <row r="82" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="1"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="1"/>
-      <c r="CP82" s="5"/>
-    </row>
-    <row r="83" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="7"/>
-      <c r="Z83" s="7"/>
-      <c r="AA83" s="7"/>
-      <c r="AB83" s="7"/>
-      <c r="AC83" s="7"/>
-      <c r="AD83" s="7"/>
-      <c r="AE83" s="7"/>
-      <c r="AF83" s="7"/>
-      <c r="AG83" s="7"/>
-      <c r="AH83" s="7"/>
-      <c r="AI83" s="7"/>
-      <c r="AJ83" s="7"/>
-      <c r="AK83" s="7"/>
-      <c r="AL83" s="7"/>
-      <c r="AM83" s="7"/>
-      <c r="AN83" s="7"/>
-      <c r="AO83" s="7"/>
-      <c r="AP83" s="7"/>
-      <c r="AQ83" s="7"/>
-      <c r="AR83" s="7"/>
-      <c r="AS83" s="7"/>
-      <c r="AT83" s="7"/>
-      <c r="AU83" s="7"/>
-      <c r="AV83" s="7"/>
-      <c r="AW83" s="7"/>
-      <c r="AX83" s="7"/>
-      <c r="AY83" s="7"/>
-      <c r="AZ83" s="7"/>
-      <c r="BA83" s="7"/>
-      <c r="BB83" s="7"/>
-      <c r="BC83" s="7"/>
-      <c r="BD83" s="7"/>
-      <c r="BE83" s="7"/>
-      <c r="BF83" s="7"/>
-      <c r="BG83" s="7"/>
-      <c r="BH83" s="7"/>
-      <c r="BI83" s="7"/>
-      <c r="BJ83" s="7"/>
-      <c r="BK83" s="7"/>
-      <c r="BL83" s="7"/>
-      <c r="BM83" s="7"/>
-      <c r="BN83" s="7"/>
-      <c r="BO83" s="7"/>
-      <c r="BP83" s="7"/>
-      <c r="BQ83" s="7"/>
-      <c r="BR83" s="7"/>
-      <c r="BS83" s="7"/>
-      <c r="BT83" s="7"/>
-      <c r="BU83" s="7"/>
-      <c r="BV83" s="7"/>
-      <c r="BW83" s="7"/>
-      <c r="BX83" s="7"/>
-      <c r="BY83" s="7"/>
-      <c r="BZ83" s="7"/>
-      <c r="CA83" s="7"/>
-      <c r="CB83" s="7"/>
-      <c r="CC83" s="7"/>
-      <c r="CD83" s="7"/>
-      <c r="CE83" s="7"/>
-      <c r="CF83" s="7"/>
-      <c r="CG83" s="7"/>
-      <c r="CH83" s="7"/>
-      <c r="CI83" s="7"/>
-      <c r="CJ83" s="7"/>
-      <c r="CK83" s="7"/>
-      <c r="CL83" s="7"/>
-      <c r="CM83" s="7"/>
-      <c r="CN83" s="7"/>
-      <c r="CO83" s="7"/>
-      <c r="CP83" s="8"/>
+      <c r="B78" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="7"/>
+      <c r="AG78" s="7"/>
+      <c r="AH78" s="7"/>
+      <c r="AI78" s="7"/>
+      <c r="AJ78" s="7"/>
+      <c r="AK78" s="7"/>
+      <c r="AL78" s="7"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+      <c r="AO78" s="7"/>
+      <c r="AP78" s="7"/>
+      <c r="AQ78" s="7"/>
+      <c r="AR78" s="7"/>
+      <c r="AS78" s="7"/>
+      <c r="AT78" s="7"/>
+      <c r="AU78" s="7"/>
+      <c r="AV78" s="7"/>
+      <c r="AW78" s="7"/>
+      <c r="AX78" s="7"/>
+      <c r="AY78" s="7"/>
+      <c r="AZ78" s="7"/>
+      <c r="BA78" s="7"/>
+      <c r="BB78" s="7"/>
+      <c r="BC78" s="7"/>
+      <c r="BD78" s="7"/>
+      <c r="BE78" s="7"/>
+      <c r="BF78" s="7"/>
+      <c r="BG78" s="7"/>
+      <c r="BH78" s="7"/>
+      <c r="BI78" s="7"/>
+      <c r="BJ78" s="7"/>
+      <c r="BK78" s="7"/>
+      <c r="BL78" s="7"/>
+      <c r="BM78" s="7"/>
+      <c r="BN78" s="7"/>
+      <c r="BO78" s="7"/>
+      <c r="BP78" s="7"/>
+      <c r="BQ78" s="7"/>
+      <c r="BR78" s="7"/>
+      <c r="BS78" s="7"/>
+      <c r="BT78" s="7"/>
+      <c r="BU78" s="7"/>
+      <c r="BV78" s="7"/>
+      <c r="BW78" s="7"/>
+      <c r="BX78" s="7"/>
+      <c r="BY78" s="7"/>
+      <c r="BZ78" s="7"/>
+      <c r="CA78" s="7"/>
+      <c r="CB78" s="7"/>
+      <c r="CC78" s="7"/>
+      <c r="CD78" s="7"/>
+      <c r="CE78" s="7"/>
+      <c r="CF78" s="7"/>
+      <c r="CG78" s="7"/>
+      <c r="CH78" s="7"/>
+      <c r="CI78" s="7"/>
+      <c r="CJ78" s="7"/>
+      <c r="CK78" s="7"/>
+      <c r="CL78" s="7"/>
+      <c r="CM78" s="7"/>
+      <c r="CN78" s="7"/>
+      <c r="CO78" s="7"/>
+      <c r="CP78" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="K79:AX79"/>
-    <mergeCell ref="K80:AX80"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="O74:AB74"/>
-    <mergeCell ref="AC74:AP74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="O75:AB75"/>
-    <mergeCell ref="AC75:AP75"/>
-    <mergeCell ref="K70:AX70"/>
-    <mergeCell ref="K71:AX71"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="O54:AB54"/>
-    <mergeCell ref="AC54:AP54"/>
-    <mergeCell ref="K58:AX58"/>
-    <mergeCell ref="K59:AX59"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="O64:AB64"/>
-    <mergeCell ref="AC64:AX64"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:S32"/>
-    <mergeCell ref="T32:AO32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="T29:AO29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:S30"/>
-    <mergeCell ref="T30:AO30"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:S33"/>
-    <mergeCell ref="T33:AO33"/>
-    <mergeCell ref="AP33:BJ33"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:AB53"/>
-    <mergeCell ref="K49:AX49"/>
-    <mergeCell ref="K50:AX50"/>
-    <mergeCell ref="AC44:AX44"/>
-    <mergeCell ref="AC45:AX45"/>
-    <mergeCell ref="AC53:AP53"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="O44:AB44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="O45:AB45"/>
-    <mergeCell ref="J38:CP38"/>
-    <mergeCell ref="AP32:BJ32"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="AP30:BJ30"/>
-    <mergeCell ref="F31:S31"/>
-    <mergeCell ref="T31:AO31"/>
-    <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:S19"/>
-    <mergeCell ref="T19:AO19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="T20:AO20"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="P24:AK24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="P25:AK25"/>
+  <mergeCells count="81">
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:S18"/>
+    <mergeCell ref="T18:AO18"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="T16:AO16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:S17"/>
+    <mergeCell ref="T17:AO17"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="L4:AV4"/>
     <mergeCell ref="B5:K5"/>
@@ -8764,19 +8619,65 @@
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:S15"/>
     <mergeCell ref="T15:AO15"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="O65:AB65"/>
-    <mergeCell ref="AC65:AX65"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="T16:AO16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:S17"/>
-    <mergeCell ref="T17:AO17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:S18"/>
-    <mergeCell ref="T18:AO18"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:S19"/>
+    <mergeCell ref="T19:AO19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="T20:AO20"/>
+    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="F26:S26"/>
+    <mergeCell ref="T26:AO26"/>
+    <mergeCell ref="AP26:BJ26"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="O48:AB48"/>
+    <mergeCell ref="K44:AX44"/>
+    <mergeCell ref="K45:AX45"/>
+    <mergeCell ref="AC39:AX39"/>
+    <mergeCell ref="AC40:AX40"/>
+    <mergeCell ref="AC48:AP48"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O39:AB39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="O40:AB40"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="T28:AO28"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:CP33"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:S27"/>
+    <mergeCell ref="T27:AO27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:S24"/>
+    <mergeCell ref="T24:AO24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="T25:AO25"/>
+    <mergeCell ref="K65:AX65"/>
+    <mergeCell ref="K66:AX66"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:AB49"/>
+    <mergeCell ref="AC49:AP49"/>
+    <mergeCell ref="K53:AX53"/>
+    <mergeCell ref="K54:AX54"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="O59:AB59"/>
+    <mergeCell ref="AC59:AX59"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="O60:AB60"/>
+    <mergeCell ref="AC60:AX60"/>
+    <mergeCell ref="K74:AX74"/>
+    <mergeCell ref="K75:AX75"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="O69:AB69"/>
+    <mergeCell ref="AC69:AP69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="O70:AB70"/>
+    <mergeCell ref="AC70:AP70"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
